--- a/public/dcf_model_blank.xlsx
+++ b/public/dcf_model_blank.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeung\Documents\Programming\cash-flow-server\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeung\Documents\Programming\cash-flow-v3\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE691D86-B727-41D7-A85C-6A9E19395A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1420EF7-FA30-40F1-875C-32FDE1076D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7710" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{0646DCF6-9E5E-439A-8C31-869D606F0004}"/>
+    <workbookView xWindow="-3514" yWindow="5126" windowWidth="7054" windowHeight="3643" tabRatio="1000" activeTab="8" xr2:uid="{0646DCF6-9E5E-439A-8C31-869D606F0004}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="272" r:id="rId1"/>
-    <sheet name="DCF &gt;" sheetId="9" r:id="rId2"/>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="308" state="veryHidden" r:id="rId3"/>
-    <sheet name="DCF" sheetId="163" r:id="rId4"/>
+    <sheet name="Output &gt;" sheetId="9" r:id="rId2"/>
+    <sheet name="DCF" sheetId="163" r:id="rId3"/>
+    <sheet name="Analysis &gt;" sheetId="269" r:id="rId4"/>
     <sheet name="Discount rate" sheetId="166" r:id="rId5"/>
     <sheet name="Beta" sheetId="167" r:id="rId6"/>
-    <sheet name="Comps &gt;" sheetId="269" r:id="rId7"/>
-    <sheet name="Comps" sheetId="270" r:id="rId8"/>
-    <sheet name="Input &gt;" sheetId="93" r:id="rId9"/>
-    <sheet name="Forecasts" sheetId="267" r:id="rId10"/>
+    <sheet name="Comps" sheetId="270" r:id="rId7"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="325" state="veryHidden" r:id="rId8"/>
+    <sheet name="Forecasts" sheetId="267" r:id="rId9"/>
+    <sheet name="Data &gt;" sheetId="93" r:id="rId10"/>
     <sheet name="IS" sheetId="265" r:id="rId11"/>
     <sheet name="BS" sheetId="266" r:id="rId12"/>
     <sheet name="CFS" sheetId="268" r:id="rId13"/>
@@ -34,7 +34,7 @@
     <definedName name="betaDate">Assumptions!$D$34</definedName>
     <definedName name="betaFreq">Assumptions!$D$36</definedName>
     <definedName name="ciqId">Assumptions!$D$9</definedName>
-    <definedName name="CIQWBGuid" hidden="1">"466f3062-ebcc-44db-8343-6007ccb7140e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d6a27ab7-5bee-4bce-92db-b22b55cca050"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="convMode">Assumptions!$D$17</definedName>
     <definedName name="curr">Assumptions!$D$11</definedName>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="327">
   <si>
     <t>Risk free rate</t>
   </si>
@@ -700,9 +700,6 @@
     <t>Unearned revenue, current</t>
   </si>
   <si>
-    <t>Forecasts (Capital IQ)</t>
-  </si>
-  <si>
     <t>IQ_REVENUE_EST</t>
   </si>
   <si>
@@ -715,30 +712,12 @@
     <t>IQ_EBIT_EST</t>
   </si>
   <si>
-    <t>IQ_INTEREST_EXP_EST</t>
-  </si>
-  <si>
-    <t>EBT (excl. exceptional items)</t>
-  </si>
-  <si>
-    <t>IQ_PRETAX_INC_EST</t>
-  </si>
-  <si>
-    <t>IQ_NI_EST</t>
-  </si>
-  <si>
-    <t>IQ_NET_DEBT_EST</t>
-  </si>
-  <si>
     <t>IQ_DA_EST</t>
   </si>
   <si>
     <t>IQ_CAPEX_EST</t>
   </si>
   <si>
-    <t>Net debt</t>
-  </si>
-  <si>
     <t>Enterprise value</t>
   </si>
   <si>
@@ -820,9 +799,6 @@
     <t>Forecasts (user input)</t>
   </si>
   <si>
-    <t>Note: Currently using placeholder values based on historical data grown at the assumed terminal growth rate. Please replace with your own forecasts.</t>
-  </si>
-  <si>
     <t>Operating costs</t>
   </si>
   <si>
@@ -832,9 +808,6 @@
     <t>Working capital</t>
   </si>
   <si>
-    <t>Note: Currently forecasting working capital using historical WC as % of revenues.</t>
-  </si>
-  <si>
     <t>NOPLAT</t>
   </si>
   <si>
@@ -1012,101 +985,140 @@
     <t>Forecasts as of (date)</t>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQ1wAAACFDSVEuMC5JUV9FQklUREEuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSk7722mSkXZCEFRgaZKRdkIGUNJUS4uSVFfQ1VTVE9NX0JFVEEuLi4uLi4FAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCE8WbqZKRdkIGkNJUS4uSVFfQ1VTVE9NX0JFVEEuLi4uLi4wBQAAAAEAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpTxZupkpF2QhPFm6mSkXZCBtDSVEuLklRX0NVU1RPTV9CRVRBLi4uLi4wLjAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCE8WbqZKRdkIHENJUS4uSVFfQ1VTVE9NX0JFVEEuLi4uMC4wLjAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCE8WbqZKRdkIHUNJUS4uSVFfQ1VTVE9NX0JFVEEuLi5XLjAuMC4wBQAAAAEAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpTxZupkpF2QhPFm6mSkXZCC9DSVEuLklRX0NVU1RPTV9CRVRBLjMxLzEyLzM3OTcuMDA6MDA6MDAuVy4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkIqTuCpkpF2QggQ0lRLi5JUV9UT1RBTF9ERUJULi4wMDowMDowMC4uLi4FAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCE8WbqZKRdkIIUNJUS4u</t>
-  </si>
-  <si>
-    <t>SVFfVE9UQUxfREVCVC4uMDA6MDA6MDAuLi4uMAUAAAABAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkITxZupkpF2QgiQ0lRLi5JUV9UT1RBTF9ERUJULi4wMDowMDowMC4uLjAuMAUAAAABAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkITxZupkpF2QgjQ0lRLi5JUV9UT1RBTF9ERUJULi4wMDowMDowMC4uMC4wLjAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCE8WbqZKRdkIJENJUS4uSVFfVE9UQUxfREVCVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkI37CCpkpF2QglQ0lRLi5JUV9QUkVGX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkI37CCpkpF2QgUQ0lRLi5JUV9NQVJLRVRDQVAuLi4FAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCE8WbqZKRdkIHENJUS4uSVFfTUFSS0VUQ0FQLi4uMDA6MDA6MDAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCE8WbqZKRdkIJENJUS4uSVFfTUFSS0VUQ0FQLi4wMDowMDowMC4wMDowMDowMAUAAAABAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkITxZupkpF2QgsQ0lRLi5JUV9NQVJLRVRDQVAuMDA6MDA6MDAu</t>
-  </si>
-  <si>
-    <t>MDA6MDA6MDAuMDA6MDA6MDAFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCN+wgqZKRdkIFENJUS4uSVFfQ09NUEFOWV9OQU1FBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpTxZupkpF2Qjz14KmSkXZCC5DSVEuLklRX0JVU0lORVNTX0RFU0NSSVBUSU9OLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpTxZupkpF2QjfsIKmSkXZCCRDSVEuLklRX0NBU0hfRVFVSVYuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilPFm6mSkXZCEFRgaZKRdkIJ0NJUS4uSVFfRkxPQVRfUEVSQ0VOVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkIdcaBpkpF2QglQ0lRQVZHLi5JUV9WT0xVTUUuMzEvMTIvMzc5Ny4wMDowMDowMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkIqTuCpkpF2QgiQ0lRLi5JUV9URVZfRUJJVERBLklRX0xUTS4wMDowMDowMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkIQVGBpkpF2QgnQ0lRLjAuSVFfRUJJVERBLklRX0xUTS4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgtNIGmSkXZCCJDSVEuMC5J</t>
-  </si>
-  <si>
-    <t>UV9TVF9ERUJULi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2Qjz14KmSkXZCCJDSVEuMC5JUV9MVF9ERUJULi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QhBUYGmSkXZCCVDSVEuMC5JUV9DQVNIX0VRVUlWLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgE/4KmSkXZCCNDSVEuLklRX1dPUktJTkdfQ0FQLklRX0xUTS4wMDowMDowMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKU8WbqZKRdkIqTuCpkpF2QghQ0lRLi5JUV9UT1RBTF9SRVYuSVFfTFRNLjAwOjAwOjAwBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpTxZupkpF2QgbJoOmSkXZCCtDSVEuMC5JUV9SRVZFTlVFX0VTVC5GWTE5MDAuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKU8WbqZKRdkIHPq8pkpF2QgrQ0lRLjAuSVFfUkVWRU5VRV9FU1QuRlkxOTAxLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlPFm6mSkXZCA3TvKZKRdkIK0NJUS4wLklRX1JFVkVOVUVfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKElu</t>
-  </si>
-  <si>
-    <t>dmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2QgN07ymSkXZCCpDSVEuMC5JUV9FQklUREFfRVNULkZZMTkwMC4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2Qj+q7ymSkXZCCpDSVEuMC5JUV9FQklUREFfRVNULkZZMTkwMS4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2Qj+q7ymSkXZCCpDSVEuMC5JUV9FQklUREFfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2QgzIb2mSkXZCChDSVEuMC5JUV9FQklUX0VTVC5GWTE5MDAuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKU8WbqZKRdkIMyG9pkpF2QgoQ0lRLjAuSVFfRUJJVF9FU1QuRlkxOTAxLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlPFm6mSkXZCOaEvKZKRdkIKENJUS4wLklRX0VCSVRfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2QgN07ymSkXZCDBDSVEuMC5JUV9JTlRFUkVTVF9FWFBfRVNULkZZMTkwMC4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2Qgc+rym</t>
-  </si>
-  <si>
-    <t>SkXZCDBDSVEuMC5JUV9JTlRFUkVTVF9FWFBfRVNULkZZMTkwMS4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2Qgc+rymSkXZCDBDSVEuMC5JUV9JTlRFUkVTVF9FWFBfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2QgN07ymSkXZCC5DSVEuMC5JUV9QUkVUQVhfSU5DX0VTVC5GWTE5MDAuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKU8WbqZKRdkIHPq8pkpF2QguQ0lRLjAuSVFfUFJFVEFYX0lOQ19FU1QuRlkxOTAxLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlPFm6mSkXZCP6rvKZKRdkILkNJUS4wLklRX1BSRVRBWF9JTkNfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2QgN07ymSkXZCCZDSVEuMC5JUV9OSV9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlPFm6mSkXZCP6rvKZKRdkIJkNJUS4wLklRX05JX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKU8WbqZKRdkI/qu8pkpF2QgmQ0lRLjAuSVFf</t>
-  </si>
-  <si>
-    <t>TklfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2Qj+q7ymSkXZCCxDSVEuMC5JUV9ORVRfREVCVF9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlPFm6mSkXZCBz6vKZKRdkILENJUS4wLklRX05FVF9ERUJUX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKU8WbqZKRdkI5oS8pkpF2QgsQ0lRLjAuSVFfTkVUX0RFQlRfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2QjmhLymSkXZCCZDSVEuMC5JUV9EQV9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlPFm6mSkXZCBz6vKZKRdkIJkNJUS4wLklRX0RBX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKU8WbqZKRdkIHPq8pkpF2QgmQ0lRLjAuSVFfREFfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2QgN07ymSkXZCClDSVEuMC5JUV9DQVBFWF9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>CAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlPFm6mSkXZCOaEvKZKRdkIKUNJUS4wLklRX0NBUEVYX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKU8WbqZKRdkI/qu8pkpF2QgpQ0lRLjAuSVFfQ0FQRVhfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpTxZupkpF2Qgc+rymSkXZCCRDSVEuMC5JUV9UT1RBTF9SRVYuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCJcUgqZKRdkIJkNJUS4wLklRX1RPVEFMX1JFVi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QjQiYKmSkXZCCZDSVEuMC5JUV9UT1RBTF9SRVYuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI37CCpkpF2QgfQ0lRLjAuSVFfQ09HUy4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIBP+CpkpF2QghQ0lRLjAuSVFfQ09HUy4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgtNIGmSkXZ</t>
-  </si>
-  <si>
-    <t>CCFDSVEuMC5JUV9DT0dTLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCGafgaZKRdkIHkNJUS4wLklRX1NHQS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIlxSCpkpF2QggQ0lRLjAuSVFfU0dBLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCGafgaZKRdkIIENJUS4wLklRX1NHQS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QiXFIKmSkXZCCFDSVEuMC5JUV9SRF9FWFAuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCNCJgqZKRdkII0NJUS4wLklRX1JEX0VYUC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QipO4KmSkXZCCNDSVEuMC5JUV9SRF9FWFAuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIBP+CpkpF2QglQ0lRLjAuSVFfT1RIRVJfT1BFUi4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxp</t>
-  </si>
-  <si>
-    <t>ZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkILTSBpkpF2QgnQ0lRLjAuSVFfT1RIRVJfT1BFUi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2Qhmn4GmSkXZCCdDSVEuMC5JUV9PVEhFUl9PUEVSLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCC00gaZKRdkIHUNJUS4wLklRX0RBLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2Qhmn4GmSkXZCB9DSVEuMC5JUV9EQS4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QiXFIKmSkXZCB9DSVEuMC5JUV9EQS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QjQiYKmSkXZCCdDSVEuMC5JUV9JTlRFUkVTVF9FWFAuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCKk7gqZKRdkIKUNJUS4wLklRX0lOVEVSRVNUX0VYUC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgE/4KmSkXZCClDSVEu</t>
-  </si>
-  <si>
-    <t>MC5JUV9JTlRFUkVTVF9FWFAuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkILTSBpkpF2QguQ0lRLjAuSVFfSU5URVJFU1RfSU5WRVNUX0lOQy4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIBP+CpkpF2QgwQ0lRLjAuSVFfSU5URVJFU1RfSU5WRVNUX0lOQy4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgtNIGmSkXZCDBDSVEuMC5JUV9JTlRFUkVTVF9JTlZFU1RfSU5DLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCGafgaZKRdkIKENJUS4wLklRX0NVUlJFTkNZX0dBSU4uLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCJcUgqZKRdkIKkNJUS4wLklRX0NVUlJFTkNZX0dBSU4uLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI0ImCpkpF2QgqQ0lRLjAuSVFfQ1VSUkVOQ1lfR0FJTi4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZu</t>
-  </si>
-  <si>
-    <t>pkpF2QhBUYGmSkXZCDNDSVEuMC5JUV9PVEhFUl9OT05fT1BFUl9FWFBfU1VQUEwuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCAT/gqZKRdkINUNJUS4wLklRX09USEVSX05PTl9PUEVSX0VYUF9TVVBQTC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2Qh1xoGmSkXZCDVDSVEuMC5JUV9PVEhFUl9OT05fT1BFUl9FWFBfU1VQUEwuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIBP+CpkpF2QgeQ0lRLjAuSVFfRUJULi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgtNIGmSkXZCCBDSVEuMC5JUV9FQlQuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIZp+BpkpF2QggQ0lRLjAuSVFfRUJULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCJcUgqZKRdkIIkNJUS4wLklRX0lOQ19UQVguLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZ</t>
-  </si>
-  <si>
-    <t>CNCJgqZKRdkIJENJUS4wLklRX0lOQ19UQVguLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI37CCpkpF2QgkQ0lRLjAuSVFfSU5DX1RBWC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgnKoGmSkXZCB1DSVEuMC5JUV9OSS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIZp+BpkpF2QgfQ0lRLjAuSVFfTkkuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIlxSCpkpF2QgfQ0lRLjAuSVFfTkkuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI0ImCpkpF2QgnQ0lRLjAuSVFfQ0FTSF9FUVVJVi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgnKoGmSkXZCCdDSVEuMC5JUV9DQVNIX0VRVUlWLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCGafgaZKRdkIJENJUS4wLklRX1NUX0lOVkVTVC4uMDA6MDA6MDAuMC4wLjAuMAUA</t>
-  </si>
-  <si>
-    <t>AAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIlxSCpkpF2QgmQ0lRLjAuSVFfU1RfSU5WRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCNCJgqZKRdkIJkNJUS4wLklRX1NUX0lOVkVTVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QipO4KmSkXZCB1DSVEuMC5JUV9BUi4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIBP+CpkpF2QgfQ0lRLjAuSVFfQVIuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIdcaBpkpF2QgfQ0lRLjAuSVFfQVIuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIBP+CpkpF2QgnQ0lRLjAuSVFfT1RIRVJfUkVDRUlWLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgnKoGmSkXZCClDSVEuMC5JUV9PVEhFUl9SRUNFSVYuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZK</t>
-  </si>
-  <si>
-    <t>RdkIZp+BpkpF2QgpQ0lRLjAuSVFfT1RIRVJfUkVDRUlWLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCJcUgqZKRdkIJENJUS4wLklRX0lOVkVOVE9SWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI0ImCpkpF2QgmQ0lRLjAuSVFfSU5WRU5UT1JZLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCN+wgqZKRdkIJkNJUS4wLklRX0lOVkVOVE9SWS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QjQiYKmSkXZCCpDSVEuMC5JUV9SRVNUUklDVEVEX0NBU0guLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCKk7gqZKRdkILENJUS4wLklRX1JFU1RSSUNURURfQ0FTSC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgE/4KmSkXZCCxDSVEuMC5JUV9SRVNUUklDVEVEX0NBU0guLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIFwOB</t>
-  </si>
-  <si>
-    <t>pkpF2QgjQ0lRLjAuSVFfVE9UQUxfQ0EuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCGafgaZKRdkIJUNJUS4wLklRX1RPVEFMX0NBLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCJcUgqZKRdkIJUNJUS4wLklRX1RPVEFMX0NBLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCNCJgqZKRdkIH0NJUS4wLklRX05QUEUuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCJcUgqZKRdkIIUNJUS4wLklRX05QUEUuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI0ImCpkpF2QghQ0lRLjAuSVFfTlBQRS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QhBUYGmSkXZCB1DSVEuMC5JUV9HVy4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIBP+CpkpF2QgfQ0lRLjAuSVFfR1cuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52</t>
-  </si>
-  <si>
-    <t>YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIFwOBpkpF2QgfQ0lRLjAuSVFfR1cuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIZp+BpkpF2QgmQ0lRLjAuSVFfT1RIRVJfSU5UQU4uLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCJcUgqZKRdkIKENJUS4wLklRX09USEVSX0lOVEFOLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCE14gaZKRdkIKENJUS4wLklRX09USEVSX0lOVEFOLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCI3tgaZKRdkIJENJUS4wLklRX0xUX0lOVkVTVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIvWKCpkpF2QgmQ0lRLjAuSVFfTFRfSU5WRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCHXGgaZKRdkIJkNJUS4wLklRX0xUX0lOVkVTVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF</t>
-  </si>
-  <si>
-    <t>2QgE/4KmSkXZCCdDSVEuMC5JUV9UT1RBTF9BU1NFVFMuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCBcDgaZKRdkIKUNJUS4wLklRX1RPVEFMX0FTU0VUUy4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QhNeIGmSkXZCClDSVEuMC5JUV9UT1RBTF9BU1NFVFMuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIFwOBpkpF2QgdQ0lRLjAuSVFfQVAuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCE14gaZKRdkIH0NJUS4wLklRX0FQLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCI3tgaZKRdkIH0NJUS4wLklRX0FQLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCL1igqZKRdkIHUNJUS4wLklRX0FFLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QjfsIKmSkXZCB9DSVEuMC5JUV9BRS4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAA</t>
-  </si>
-  <si>
-    <t>AAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgE/4KmSkXZCB9DSVEuMC5JUV9BRS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgXA4GmSkXZCCRDSVEuMC5JUV9TVF9ERUJULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCBcDgaZKRdkIJENJUS4wLklRX1NUX0RFQlQuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkITXiBpkpF2QgsQ0lRLjAuSVFfQ1VSUkVOVF9QT1JUX0RFQlQuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCI3tgaZKRdkILkNJUS4wLklRX0NVUlJFTlRfUE9SVF9ERUJULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCL1igqZKRdkILkNJUS4wLklRX0NVUlJFTlRfUE9SVF9ERUJULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCKk7gqZKRdkILkNJUS4wLklRX0NVUlJFTlRfUE9SVF9MRUFTRVMuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgA</t>
-  </si>
-  <si>
-    <t>AAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCPPXgqZKRdkIMENJUS4wLklRX0NVUlJFTlRfUE9SVF9MRUFTRVMuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI37CCpkpF2QgwQ0lRLjAuSVFfQ1VSUkVOVF9QT1JUX0xFQVNFUy4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2Qjz14KmSkXZCC1DSVEuMC5JUV9VTkVBUk5fUkVWX0NVUlJFTlQuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCBcDgaZKRdkIL0NJUS4wLklRX1VORUFSTl9SRVZfQ1VSUkVOVC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QhNeIGmSkXZCC9DSVEuMC5JUV9VTkVBUk5fUkVWX0NVUlJFTlQuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIje2BpkpF2QgjQ0lRLjAuSVFfVE9UQUxfQ0wuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCL1igqZKRdkIJUNJUS4wLklRX1RPVEFMX0NMLi4zMS8xMi8xOTAw</t>
-  </si>
-  <si>
-    <t>LjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCHXGgaZKRdkIJUNJUS4wLklRX1RPVEFMX0NMLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCL1igqZKRdkIJENJUS4wLklRX0xUX0RFQlQuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI89eCpkpF2QgkQ0lRLjAuSVFfTFRfREVCVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgXA4GmSkXZCCtDSVEuMC5JUV9MT05HX1RFUk1fTEVBU0VTLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QhNeIGmSkXZCC1DSVEuMC5JUV9MT05HX1RFUk1fTEVBU0VTLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCI3tgaZKRdkILUNJUS4wLklRX0xPTkdfVEVSTV9MRUFTRVMuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIvWKCpkpF2QgoQ0lRLjAuSVFfVU5FQVJOX1JFVl9MVC4uMDA6MDA6MDAuMC4wLjAu</t>
-  </si>
-  <si>
-    <t>MAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIje2BpkpF2QgqQ0lRLjAuSVFfVU5FQVJOX1JFVl9MVC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2Qi9YoKmSkXZCCpDSVEuMC5JUV9VTkVBUk5fUkVWX0xULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCHXGgaZKRdkIKkNJUS4wLklRX0RFRl9UQVhfTElBQl9MVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI89eCpkpF2QgsQ0lRLjAuSVFfREVGX1RBWF9MSUFCX0xULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCBcDgaZKRdkILENJUS4wLklRX0RFRl9UQVhfTElBQl9MVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QhNeIGmSkXZCCVDSVEuMC5JUV9UT1RBTF9MSUFCLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QiN7YGmSkXZCCdDSVEuMC5JUV9UT1RBTF9MSUFCLi4zMS8xMi8xOTAwLjAuMC4w</t>
-  </si>
-  <si>
-    <t>LjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCE14gaZKRdkIJ0NJUS4wLklRX1RPVEFMX0xJQUIuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIje2BpkpF2QghQ0lRLjAuSVFfQ09NTU9OLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2Qi9YoKmSkXZCCNDSVEuMC5JUV9DT01NT04uLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIZp+BpkpF2QgjQ0lRLjAuSVFfQ09NTU9OLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCPPXgqZKRdkIH0NJUS4wLklRX0FQSUMuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCBcDgaZKRdkIIUNJUS4wLklRX0FQSUMuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkITXiBpkpF2QghQ0lRLjAuSVFfQVBJQy4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpTxZupkpF2QgX</t>
-  </si>
-  <si>
-    <t>A4GmSkXZCB1DSVEuMC5JUV9SRS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkITXiBpkpF2QgfQ0lRLjAuSVFfUkUuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIje2BpkpF2QgfQ0lRLjAuSVFfUkUuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkIvWKCpkpF2QgjQ0lRLjAuSVFfVFJFQVNVUlkuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCKk7gqZKRdkIJUNJUS4wLklRX1RSRUFTVVJZLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCPPXgqZKRdkIJUNJUS4wLklRX1RSRUFTVVJZLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCBcDgaZKRdkIJ0NJUS4wLklRX09USEVSX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKU8WbqZKRdkI89eCpkpF2QgpQ0lRLjAuSVFfT1RIRVJfRVFVSVRZLi4zMS8xMi8xOTAwLjAuMC4wLjAF</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlPFm6mSkXZCBcDgaZKRdkIKUNJUS4wLklRX09USEVSX0VRVUlUWS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF2QhNeIGmSkXZCCZDSVEuMC5JUV9QUkVGX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKV49bqZKRdkIje2BpkpF2QgoQ0lRLjAuSVFfUFJFRl9FUVVJVFkuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKV49bqZKRdkIvWKCpkpF2QgoQ0lRLjAuSVFfUFJFRl9FUVVJVFkuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKV49bqZKRdkIQVGBpkpF2QgsQ0lRLjAuSVFfTUlOT1JJVFlfSU5URVJFU1QuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCPPXgqZKRdkILkNJUS4wLklRX01JTk9SSVRZX0lOVEVSRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCBcDgaZKRdkILkNJUS4wLklRX01JTk9SSVRZX0lOVEVSRVNULi4zMS8xMi8xOTAxLjAu</t>
-  </si>
-  <si>
-    <t>MC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCE14gaZKRdkIJ0NJUS4wLklRX1RPVEFMX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKV49bqZKRdkIje2BpkpF2QgpQ0lRLjAuSVFfVE9UQUxfRVFVSVRZLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCL1igqZKRdkIKUNJUS4wLklRX1RPVEFMX0VRVUlUWS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF2QjfsIKmSkXZCCRDSVEuMC5JUV9DQVNIX09QRVIuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCPPXgqZKRdkIJkNJUS4wLklRX0NBU0hfT1BFUi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF2QgC3ICmSkXZCCZDSVEuMC5JUV9DQVNIX09QRVIuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKV49bqZKRdkITXiBpkpF2QgmQ0lRLjAuSVFfQ0FTSF9JTlZFU1QuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAa</t>
-  </si>
-  <si>
-    <t>KEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCI3tgaZKRdkIKENJUS4wLklRX0NBU0hfSU5WRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCL1igqZKRdkIKENJUS4wLklRX0NBU0hfSU5WRVNULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCHXGgaZKRdkIJUNJUS4wLklRX0NBU0hfRklOQU4uLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCPPXgqZKRdkIJ0NJUS4wLklRX0NBU0hfRklOQU4uLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKV49bqZKRdkI37CCpkpF2QgnQ0lRLjAuSVFfQ0FTSF9GSU5BTi4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF2Qjz14KmSkXZCCVDSVEuMC5JUV9ORVRfQ0hBTkdFLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF2QgC3ICmSkXZCCdDSVEuMC5JUV9ORVRfQ0hBTkdFLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1l</t>
-  </si>
-  <si>
-    <t>bnQgVHlwZSlePW6mSkXZCE14gaZKRdkIJ0NJUS4wLklRX05FVF9DSEFOR0UuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKV49bqZKRdkIje2BpkpF2QggQ0lRLjAuSVFfQ0FQRVguLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCL1igqZKRdkIIkNJUS4wLklRX0NBUEVYLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCKk7gqZKRdkIIkNJUS4wLklRX0NBUEVYLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlePW6mSkXZCALcgKZKRdkILENJUS4wLklRX1RPVEFMX0RJVl9QQUlEX0NGLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF2QhBUYGmSkXZCC5DSVEuMC5JUV9UT1RBTF9ESVZfUEFJRF9DRi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF2QiN7YGmSkXZCC5DSVEuMC5JUV9UT1RBTF9ESVZfUEFJRF9DRi4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpXj1upkpF</t>
-  </si>
-  <si>
-    <t>2Qi9YoKmSkXZCCBDSVEuMC5JUV9EQV9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAABAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSnoYbqmSkXZCOhhuqZKRdkIKkNJUS4wLklRX0lOVEVSRVNUX0VYUF9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAABAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSnoYbqmSkXZCOhhuqZKRdkIJENJUS4wLklRX0VCSVREQV9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAABAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSnoYbqmSkXZCOhhuqZKRdkIIkNJUS4wLklRX0VCSVRfRVNULi4wMDowMDowMC4uMC4wLjAFAAAAAQAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUp6GG6pkpF2QjoYbqmSkXZCCNDSVEuMC5JUV9DQVBFWF9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAABAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSnoYbqmSkXZCOhhuqZKRdkIJkNJUS4wLklRX05FVF9ERUJUX0VTVC4uMDA6MDA6MDAuLjAuMC4wBQAAAAEAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKehhuqZKRdkI6GG6pkpF2QgoQ0lRLjAuSVFfUFJFVEFYX0lOQ19FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAABAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSnoYbqmSkXZCOhhuqZKRdkIJUNJUS4wLklRX1JFVkVOVUVfRVNULi4wMDowMDowMC4uMC4wLjAFAAAAAQAAAAgAAAAVKEludmFs</t>
-  </si>
-  <si>
-    <t>aWQgRmlsaW5nIE1vZGUp6GG6pkpF2QjoYbqmSkXZCCBDSVEuMC5JUV9OSV9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAABAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSnoYbqmSkXZCOhhuqZKRdkI</t>
+    <t>SVFfVE9UQUxfREVCVC4uMDA6MDA6MDAuLi4uMAUAAAABAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIWC1bUf1c2QgiQ0lRLi5JUV9UT1RBTF9ERUJULi4wMDowMDowMC4uLjAuMAUAAAABAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIWC1bUf1c2QgjQ0lRLi5JUV9UT1RBTF9ERUJULi4wMDowMDowMC4uMC4wLjAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCFgtW1H9XNkIJENJUS4uSVFfVE9UQUxfREVCVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIoZB3Uf1c2QglQ0lRLi5JUV9QUkVGX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIDVh2Uf1c2QgUQ0lRLi5JUV9NQVJLRVRDQVAuLi4FAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCFgtW1H9XNkIHENJUS4uSVFfTUFSS0VUQ0FQLi4uMDA6MDA6MDAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCFgtW1H9XNkIJENJUS4uSVFfTUFSS0VUQ0FQLi4wMDowMDowMC4wMDowMDowMAUAAAABAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIWC1bUf1c2QgsQ0lRLi5JUV9NQVJLRVRDQVAuMDA6MDA6MDAu</t>
+  </si>
+  <si>
+    <t>MDA6MDA6MDAuMDA6MDA6MDAFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCJFpd1H9XNkIFENJUS4uSVFfQ09NUEFOWV9OQU1FBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpWC1bUf1c2QhW9HZR/VzZCC5DSVEuLklRX0JVU0lORVNTX0RFU0NSSVBUSU9OLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpWC1bUf1c2Qggf3ZR/VzZCCRDSVEuLklRX0NBU0hfRVFVSVYuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCN/idVH9XNkIJ0NJUS4uSVFfRkxPQVRfUEVSQ0VOVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIIH92Uf1c2QglQ0lRQVZHLi5JUV9WT0xVTUUuMzEvMTIvMzc5Ny4wMDowMDowMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIVvR2Uf1c2QgiQ0lRLi5JUV9URVZfRUJJVERBLklRX0xUTS4wMDowMDowMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkIyLt1Uf1c2QgnQ0lRLjAuSVFfRUJJVERBLklRX0xUTS4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QjIu3VR/VzZCCJDSVEuMC5J</t>
+  </si>
+  <si>
+    <t>CCFDSVEuMC5JUV9DT0dTLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCA1YdlH9XNkIHkNJUS4wLklRX1NHQS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIRM12Uf1c2QggQ0lRLjAuSVFfU0dBLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCA1YdlH9XNkIIENJUS4wLklRX1NHQS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QhEzXZR/VzZCCFDSVEuMC5JUV9SRF9FWFAuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCIhCd1H9XNkII0NJUS4wLklRX1JEX0VYUC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QhW9HZR/VzZCCNDSVEuMC5JUV9SRF9FWFAuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkI1d53Uf1c2QglQ0lRLjAuSVFfT1RIRVJfT1BFUi4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxp</t>
+  </si>
+  <si>
+    <t>ZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIwpR1Uf1c2QgnQ0lRLjAuSVFfT1RIRVJfT1BFUi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QgNWHZR/VzZCCdDSVEuMC5JUV9PVEhFUl9PUEVSLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCMKUdVH9XNkIHUNJUS4wLklRX0RBLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QgNWHZR/VzZCB9DSVEuMC5JUV9EQS4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QhEzXZR/VzZCB9DSVEuMC5JUV9EQS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QiIQndR/VzZCCdDSVEuMC5JUV9JTlRFUkVTVF9FWFAuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCA1YdlH9XNkIKUNJUS4wLklRX0lOVEVSRVNUX0VYUC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QjV3ndR/VzZCClDSVEu</t>
+  </si>
+  <si>
+    <t>MC5JUV9JTlRFUkVTVF9FWFAuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIwpR1Uf1c2QguQ0lRLjAuSVFfSU5URVJFU1RfSU5WRVNUX0lOQy4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkI1d53Uf1c2QgwQ0lRLjAuSVFfSU5URVJFU1RfSU5WRVNUX0lOQy4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QiqbXVR/VzZCDBDSVEuMC5JUV9JTlRFUkVTVF9JTlZFU1RfSU5DLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCA1YdlH9XNkIKENJUS4wLklRX0NVUlJFTkNZX0dBSU4uLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCETNdlH9XNkIKkNJUS4wLklRX0NVUlJFTkNZX0dBSU4uLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIiEJ3Uf1c2QgqQ0lRLjAuSVFfQ1VSUkVOQ1lfR0FJTi4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1b</t>
+  </si>
+  <si>
+    <t>Uf1c2QhW9HZR/VzZCDNDSVEuMC5JUV9PVEhFUl9OT05fT1BFUl9FWFBfU1VQUEwuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCNXed1H9XNkINUNJUS4wLklRX09USEVSX05PTl9PUEVSX0VYUF9TVVBQTC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2Qjf4nVR/VzZCDVDSVEuMC5JUV9PVEhFUl9OT05fT1BFUl9FWFBfU1VQUEwuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkI1d53Uf1c2QgeQ0lRLjAuSVFfRUJULi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QiqbXVR/VzZCCBDSVEuMC5JUV9FQlQuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkI/DB2Uf1c2QggQ0lRLjAuSVFfRUJULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCETNdlH9XNkIIkNJUS4wLklRX0lOQ19UQVguLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZ</t>
+  </si>
+  <si>
+    <t>CIhCd1H9XNkIJENJUS4wLklRX0lOQ19UQVguLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIoZB3Uf1c2QgkQ0lRLjAuSVFfSU5DX1RBWC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QiqbXVR/VzZCB1DSVEuMC5JUV9OSS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkI/DB2Uf1c2QgfQ0lRLjAuSVFfTkkuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIRM12Uf1c2QgfQ0lRLjAuSVFfTkkuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIiEJ3Uf1c2QgnQ0lRLjAuSVFfQ0FTSF9FUVVJVi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QiqbXVR/VzZCCdDSVEuMC5JUV9DQVNIX0VRVUlWLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCPwwdlH9XNkIJENJUS4wLklRX1NUX0lOVkVTVC4uMDA6MDA6MDAuMC4wLjAuMAUA</t>
+  </si>
+  <si>
+    <t>AAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIRM12Uf1c2QgmQ0lRLjAuSVFfU1RfSU5WRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCIhCd1H9XNkIJkNJUS4wLklRX1NUX0lOVkVTVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QiRaXdR/VzZCB1DSVEuMC5JUV9BUi4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkI1d53Uf1c2QgfQ0lRLjAuSVFfQVIuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIVvR2Uf1c2QgfQ0lRLjAuSVFfQVIuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIu7d3Uf1c2QgnQ0lRLjAuSVFfT1RIRVJfUkVDRUlWLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QiqbXVR/VzZCClDSVEuMC5JUV9PVEhFUl9SRUNFSVYuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9</t>
+  </si>
+  <si>
+    <t>XNkI/DB2Uf1c2QgpQ0lRLjAuSVFfT1RIRVJfUkVDRUlWLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCETNdlH9XNkIJENJUS4wLklRX0lOVkVOVE9SWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIiEJ3Uf1c2QgmQ0lRLjAuSVFfSU5WRU5UT1JZLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCMi7dVH9XNkIJkNJUS4wLklRX0lOVkVOVE9SWS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QiIQndR/VzZCCpDSVEuMC5JUV9SRVNUUklDVEVEX0NBU0guLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCA1YdlH9XNkILENJUS4wLklRX1JFU1RSSUNURURfQ0FTSC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qi7t3dR/VzZCCxDSVEuMC5JUV9SRVNUUklDVEVEX0NBU0guLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIqm11</t>
+  </si>
+  <si>
+    <t>Uf1c2QgjQ0lRLjAuSVFfVE9UQUxfQ0EuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCPwwdlH9XNkIJUNJUS4wLklRX1RPVEFMX0NBLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCETNdlH9XNkIJUNJUS4wLklRX1RPVEFMX0NBLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCIhCd1H9XNkIH0NJUS4wLklRX05QUEUuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCDGmdlH9XNkIIUNJUS4wLklRX05QUEUuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIiEJ3Uf1c2QghQ0lRLjAuSVFfTlBQRS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QhW9HZR/VzZCB1DSVEuMC5JUV9HVy4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIu7d3Uf1c2QgfQ0lRLjAuSVFfR1cuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52</t>
+  </si>
+  <si>
+    <t>YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIqm11Uf1c2QgfQ0lRLjAuSVFfR1cuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkI/DB2Uf1c2QgmQ0lRLjAuSVFfT1RIRVJfSU5UQU4uLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCETNdlH9XNkIKENJUS4wLklRX09USEVSX0lOVEFOLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCPwwdlH9XNkIKENJUS4wLklRX09USEVSX0lOVEFOLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCDGmdlH9XNkIJENJUS4wLklRX0xUX0lOVkVTVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIZxt3Uf1c2QgmQ0lRLjAuSVFfTFRfSU5WRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCN/idVH9XNkIJkNJUS4wLklRX0xUX0lOVkVTVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c</t>
+  </si>
+  <si>
+    <t>2Qi7t3dR/VzZCCdDSVEuMC5JUV9UT1RBTF9BU1NFVFMuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCKptdVH9XNkIKUNJUS4wLklRX1RPVEFMX0FTU0VUUy4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qj8MHZR/VzZCClDSVEuMC5JUV9UT1RBTF9BU1NFVFMuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIqm11Uf1c2QgdQ0lRLjAuSVFfQVAuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCPwwdlH9XNkIH0NJUS4wLklRX0FQLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCDGmdlH9XNkIH0NJUS4wLklRX0FQLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCGcbd1H9XNkIHUNJUS4wLklRX0FFLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QihkHdR/VzZCB9DSVEuMC5JUV9BRS4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAA</t>
+  </si>
+  <si>
+    <t>AAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qi7t3dR/VzZCB9DSVEuMC5JUV9BRS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QiqbXVR/VzZCCRDSVEuMC5JUV9TVF9ERUJULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJpGdVH9XNkIJENJUS4wLklRX1NUX0RFQlQuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkI/DB2Uf1c2QgsQ0lRLjAuSVFfQ1VSUkVOVF9QT1JUX0RFQlQuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCDGmdlH9XNkILkNJUS4wLklRX0NVUlJFTlRfUE9SVF9ERUJULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCGcbd1H9XNkILkNJUS4wLklRX0NVUlJFTlRfUE9SVF9ERUJULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCCB/dlH9XNkILkNJUS4wLklRX0NVUlJFTlRfUE9SVF9MRUFTRVMuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgA</t>
+  </si>
+  <si>
+    <t>AAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCLu3d1H9XNkIMENJUS4wLklRX0NVUlJFTlRfUE9SVF9MRUFTRVMuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIVvR2Uf1c2QgwQ0lRLjAuSVFfQ1VSUkVOVF9QT1JUX0xFQVNFUy4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qi7t3dR/VzZCC1DSVEuMC5JUV9VTkVBUk5fUkVWX0NVUlJFTlQuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJpGdVH9XNkIL0NJUS4wLklRX1VORUFSTl9SRVZfQ1VSUkVOVC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qj8MHZR/VzZCC9DSVEuMC5JUV9VTkVBUk5fUkVWX0NVUlJFTlQuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIMaZ2Uf1c2QgjQ0lRLjAuSVFfVE9UQUxfQ0wuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCGcbd1H9XNkIJUNJUS4wLklRX1RPVEFMX0NMLi4zMS8xMi8xOTAw</t>
+  </si>
+  <si>
+    <t>LjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJFpd1H9XNkIJUNJUS4wLklRX1RPVEFMX0NMLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCGcbd1H9XNkIJENJUS4wLklRX0xUX0RFQlQuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIu7d3Uf1c2QgkQ0lRLjAuSVFfTFRfREVCVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QiaRnVR/VzZCCtDSVEuMC5JUV9MT05HX1RFUk1fTEVBU0VTLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qj8MHZR/VzZCC1DSVEuMC5JUV9MT05HX1RFUk1fTEVBU0VTLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCDGmdlH9XNkILUNJUS4wLklRX0xPTkdfVEVSTV9MRUFTRVMuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIZxt3Uf1c2QgoQ0lRLjAuSVFfVU5FQVJOX1JFVl9MVC4uMDA6MDA6MDAuMC4wLjAu</t>
+  </si>
+  <si>
+    <t>MAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIMaZ2Uf1c2QgqQ0lRLjAuSVFfVU5FQVJOX1JFVl9MVC4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QhnG3dR/VzZCCpDSVEuMC5JUV9VTkVBUk5fUkVWX0xULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCMi7dVH9XNkIKkNJUS4wLklRX0RFRl9UQVhfTElBQl9MVC4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIu7d3Uf1c2QgsQ0lRLjAuSVFfREVGX1RBWF9MSUFCX0xULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJpGdVH9XNkILENJUS4wLklRX0RFRl9UQVhfTElBQl9MVC4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qj8MHZR/VzZCCVDSVEuMC5JUV9UT1RBTF9MSUFCLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QgxpnZR/VzZCCdDSVEuMC5JUV9UT1RBTF9MSUFCLi4zMS8xMi8xOTAwLjAuMC4w</t>
+  </si>
+  <si>
+    <t>LjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCOsJdlH9XNkIJ0NJUS4wLklRX1RPVEFMX0xJQUIuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIMaZ2Uf1c2QghQ0lRLjAuSVFfQ09NTU9OLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QhnG3dR/VzZCCNDSVEuMC5JUV9DT01NT04uLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIkWl3Uf1c2QgjQ0lRLjAuSVFfQ09NTU9OLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCKGQd1H9XNkIH0NJUS4wLklRX0FQSUMuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJpGdVH9XNkIIUNJUS4wLklRX0FQSUMuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkI6wl2Uf1c2QghQ0lRLjAuSVFfQVBJQy4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qia</t>
+  </si>
+  <si>
+    <t>RnVR/VzZCB1DSVEuMC5JUV9SRS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkI6wl2Uf1c2QgfQ0lRLjAuSVFfUkUuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIMaZ2Uf1c2QgfQ0lRLjAuSVFfUkUuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIZxt3Uf1c2QgjQ0lRLjAuSVFfVFJFQVNVUlkuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCA1YdlH9XNkIJUNJUS4wLklRX1RSRUFTVVJZLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCKGQd1H9XNkIJUNJUS4wLklRX1RSRUFTVVJZLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJpGdVH9XNkIJ0NJUS4wLklRX09USEVSX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIoZB3Uf1c2QgpQ0lRLjAuSVFfT1RIRVJfRVFVSVRZLi4zMS8xMi8xOTAwLjAuMC4wLjAF</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJpGdVH9XNkIKUNJUS4wLklRX09USEVSX0VRVUlUWS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QjrCXZR/VzZCCZDSVEuMC5JUV9QUkVGX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIMaZ2Uf1c2QgoQ0lRLjAuSVFfUFJFRl9FUVVJVFkuLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIZxt3Uf1c2QgoQ0lRLjAuSVFfUFJFRl9FUVVJVFkuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIVvR2Uf1c2QgsQ0lRLjAuSVFfTUlOT1JJVFlfSU5URVJFU1QuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCKGQd1H9XNkILkNJUS4wLklRX01JTk9SSVRZX0lOVEVSRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCJpGdVH9XNkILkNJUS4wLklRX01JTk9SSVRZX0lOVEVSRVNULi4zMS8xMi8xOTAxLjAu</t>
+  </si>
+  <si>
+    <t>MC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCOsJdlH9XNkIJ0NJUS4wLklRX1RPVEFMX0VRVUlUWS4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIMaZ2Uf1c2QgpQ0lRLjAuSVFfVE9UQUxfRVFVSVRZLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCGcbd1H9XNkIKUNJUS4wLklRX1RPVEFMX0VRVUlUWS4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QjIu3VR/VzZCCRDSVEuMC5JUV9DQVNIX09QRVIuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCKGQd1H9XNkIJkNJUS4wLklRX0NBU0hfT1BFUi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qh9H3VR/VzZCCZDSVEuMC5JUV9DQVNIX09QRVIuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkI6wl2Uf1c2QgmQ0lRLjAuSVFfQ0FTSF9JTlZFU1QuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAa</t>
+  </si>
+  <si>
+    <t>KEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCDGmdlH9XNkIKENJUS4wLklRX0NBU0hfSU5WRVNULi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCGcbd1H9XNkIKENJUS4wLklRX0NBU0hfSU5WRVNULi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCFb0dlH9XNkIJUNJUS4wLklRX0NBU0hfRklOQU4uLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCKGQd1H9XNkIJ0NJUS4wLklRX0NBU0hfRklOQU4uLjMxLzEyLzE5MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIoZB3Uf1c2QgnQ0lRLjAuSVFfQ0FTSF9GSU5BTi4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QihkHdR/VzZCCVDSVEuMC5JUV9ORVRfQ0hBTkdFLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qh9H3VR/VzZCCdDSVEuMC5JUV9ORVRfQ0hBTkdFLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1l</t>
+  </si>
+  <si>
+    <t>bnQgVHlwZSloVFtR/VzZCOsJdlH9XNkIJ0NJUS4wLklRX05FVF9DSEFOR0UuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKWhUW1H9XNkIIH92Uf1c2QggQ0lRLjAuSVFfQ0FQRVguLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCGcbd1H9XNkIIkNJUS4wLklRX0NBUEVYLi4zMS8xMi8xOTAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCN/idVH9XNkIIkNJUS4wLklRX0NBUEVYLi4zMS8xMi8xOTAxLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSloVFtR/VzZCH0fdVH9XNkILENJUS4wLklRX1RPVEFMX0RJVl9QQUlEX0NGLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QjrCXZR/VzZCC5DSVEuMC5JUV9UT1RBTF9ESVZfUEFJRF9DRi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qggf3ZR/VzZCC5DSVEuMC5JUV9UT1RBTF9ESVZfUEFJRF9DRi4uMzEvMTIvMTkwMS4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c</t>
+  </si>
+  <si>
+    <t>Forecasting assumptions</t>
+  </si>
+  <si>
+    <t>Revenue growth rate (%)</t>
+  </si>
+  <si>
+    <t>COGS as % of revenues</t>
+  </si>
+  <si>
+    <t>Less: Cost of goods sold</t>
+  </si>
+  <si>
+    <t>Gross profit margin</t>
+  </si>
+  <si>
+    <t>IQ_GROSS_MARGIN_EST</t>
+  </si>
+  <si>
+    <t>Forecasts (Capital IQ analyst consensus estimates)</t>
+  </si>
+  <si>
+    <t>BAABTAVMT0NBTAFI/////wFQ5QAAACFDSVEuMC5JUV9FQklUREEuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSk031pR/VzZCKKQTaFpXdkIGUNJUS4uSVFfQ1VTVE9NX0JFVEEuLi4uLi4FAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCFgtW1H9XNkIGkNJUS4uSVFfQ1VTVE9NX0JFVEEuLi4uLi4wBQAAAAEAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpWC1bUf1c2QhYLVtR/VzZCBtDSVEuLklRX0NVU1RPTV9CRVRBLi4uLi4wLjAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCFgtW1H9XNkIHENJUS4uSVFfQ1VTVE9NX0JFVEEuLi4uMC4wLjAFAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCFgtW1H9XNkIHUNJUS4uSVFfQ1VTVE9NX0JFVEEuLi5XLjAuMC4wBQAAAAEAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpWC1bUf1c2QhYLVtR/VzZCC9DSVEuLklRX0NVU1RPTV9CRVRBLjMxLzEyLzM3OTcuMDA6MDA6MDAuVy4wLjAuMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkI3+J1Uf1c2QggQ0lRLi5JUV9UT1RBTF9ERUJULi4wMDowMDowMC4uLi4FAAAAAQAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilYLVtR/VzZCFgtW1H9XNkIIUNJUS4u</t>
+  </si>
+  <si>
+    <t>Depreciation and amortisation as % revenues</t>
+  </si>
+  <si>
+    <t>Capex as % of revenues</t>
+  </si>
+  <si>
+    <t>Working capital as % of revenues</t>
+  </si>
+  <si>
+    <t>al3ZCDBDSVEuMC5JUV9JTlRFUkVTVF9FWFBfRVNULkZZMTkwMS4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qgtj3vWal3ZCDBDSVEuMC5JUV9JTlRFUkVTVF9FWFBfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qgtj3vWal3ZCC5DSVEuMC5JUV9QUkVUQVhfSU5DX0VTVC5GWTE5MDAuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKVgtW1H9XNkIPFR202pd2QguQ0lRLjAuSVFfUFJFVEFYX0lOQ19FU1QuRlkxOTAxLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlYLVtR/VzZCDxUdtNqXdkILkNJUS4wLklRX1BSRVRBWF9JTkNfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qg8VHbTal3ZCCZDSVEuMC5JUV9OSV9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlYLVtR/VzZCDxUdtNqXdkIJkNJUS4wLklRX05JX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKVgtW1H9XNkIPFR202pd2QgmQ0lRLjAuSVFf</t>
+  </si>
+  <si>
+    <t>2QhW9HZR/VzZCCBDSVEuMC5JUV9EQV9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSkkwLZR/VzZCPGSYfpkXdkIKkNJUS4wLklRX0lOVEVSRVNUX0VYUF9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSkkwLZR/VzZCPGSYfpkXdkII0NJUS4wLklRX0NBUEVYX0VTVC4uMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKSTAtlH9XNkI0Wth+mRd2QgkQ0lRLjAuSVFfRUJJVERBX0VTVC4uMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKSTAtlH9XNkIVqCHhmhd2QgoQ0lRLjAuSVFfUFJFVEFYX0lOQ19FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSkkwLZR/VzZCDxUdtNqXdkIJUNJUS4wLklRX1JFVkVOVUVfRVNULi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpJMC2Uf1c2QjxkmH6ZF3ZCCJDSVEuMC5JUV9FQklUX0VTVC4uMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKSTAtlH9XNkI0Wth+mRd2QggQ0lRLjAuSVFfTklfRVNULi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmls</t>
+  </si>
+  <si>
+    <t>aW5nIE1vZGUpJMC2Uf1c2QgpLXbTal3ZCCZDSVEuMC5JUV9ORVRfREVCVF9FU1QuLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSkkwLZR/VzZCMpEYfpkXdkIGkNJUS4uSVFfTkVUX0RFQlRfRVNULi4uLi4uBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpS6ZAmAJd2QjKRGH6ZF3ZCBZDSVEuLklRX0VCSVRfRVNULi4uLi4uBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpS6ZAmAJd2QjKRGH6ZF3ZCBhDSVEuLklRX0VCSVREQV9FU1QuLi4uLi4FAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilLpkCYAl3ZCFagh4ZoXdkIFENJUS4uSVFfTklfRVNULi4uLi4uBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpS6ZAmAJd2QgpLXbTal3ZCBdDSVEuLklRX0NBUEVYX0VTVC4uLi4uLgUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUumQJgCXdkIykRh+mRd2QgcQ0lRLi5JUV9QUkVUQVhfSU5DX0VTVC4uLi4uLgUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUumQJgCXdkIKS1202pd2QgZQ0lRLi5JUV9SRVZFTlVFX0VTVC4uLi4uLgUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUumQJgCXdkIykRh+mRd2QgUQ0lRLi5JUV9EQV9FU1QuLi4uLi4FAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRp</t>
+  </si>
+  <si>
+    <t>Variable operating costs as % of revenues</t>
+  </si>
+  <si>
+    <t>Fixed operating costs</t>
+  </si>
+  <si>
+    <t>UV9TVF9ERUJULi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2Qi7t3dR/VzZCCJDSVEuMC5JUV9MVF9ERUJULi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpaFRbUf1c2QgNWHZR/VzZCCVDSVEuMC5JUV9DQVNIX0VRVUlWLi4wMDowMDowMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2Qi7t3dR/VzZCCNDSVEuLklRX1dPUktJTkdfQ0FQLklRX0xUTS4wMDowMDowMAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVgtW1H9XNkI3+J1Uf1c2QghQ0lRLi5JUV9UT1RBTF9SRVYuSVFfTFRNLjAwOjAwOjAwBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpWC1bUf1c2QjnBXhR/VzZCCtDSVEuMC5JUV9SRVZFTlVFX0VTVC5GWTE5MDAuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKVgtW1H9XNkInBY7YG1d2QgrQ0lRLjAuSVFfUkVWRU5VRV9FU1QuRlkxOTAxLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlYLVtR/VzZCJwWO2BtXdkIK0NJUS4wLklRX1JFVkVOVUVfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKElu</t>
+  </si>
+  <si>
+    <t>dmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qi17zpgbV3ZCCpDSVEuMC5JUV9FQklUREFfRVNULkZZMTkwMC4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qi17zpgbV3ZCCpDSVEuMC5JUV9FQklUREFfRVNULkZZMTkwMS4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qi17zpgbV3ZCCpDSVEuMC5JUV9FQklUREFfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qi17zpgbV3ZCChDSVEuMC5JUV9FQklUX0VTVC5GWTE5MDAuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKVgtW1H9XNkInBY7YG1d2QgoQ0lRLjAuSVFfRUJJVF9FU1QuRlkxOTAxLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlYLVtR/VzZCJwWO2BtXdkIKENJUS4wLklRX0VCSVRfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qi17zpgbV3ZCDBDSVEuMC5JUV9JTlRFUkVTVF9FWFBfRVNULkZZMTkwMC4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2QhCtnvW</t>
+  </si>
+  <si>
+    <t>TklfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qg8VHbTal3ZCCxDSVEuMC5JUV9ORVRfREVCVF9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlYLVtR/VzZCO7/Y+trXdkILENJUS4wLklRX05FVF9ERUJUX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKVgtW1H9XNkI3dhj62td2QgsQ0lRLjAuSVFfTkVUX0RFQlRfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qjd2GPra13ZCCZDSVEuMC5JUV9EQV9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAACAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlYLVtR/VzZCJwWO2BtXdkIJkNJUS4wLklRX0RBX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKVgtW1H9XNkIte86YG1d2QgmQ0lRLjAuSVFfREFfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qi17zpgbV3ZCClDSVEuMC5JUV9DQVBFWF9FU1QuRlkxOTAwLjAwOjAwOjAwLi4wLjAuMAUAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>CAAAABUoSW52YWxpZCBGaWxpbmcgTW9kZSlYLVtR/VzZCJwWO2BtXdkIKUNJUS4wLklRX0NBUEVYX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKVgtW1H9XNkInBY7YG1d2QgpQ0lRLjAuSVFfQ0FQRVhfRVNULkZZMTkwMi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpWC1bUf1c2Qi17zpgbV3ZCCRDSVEuMC5JUV9UT1RBTF9SRVYuLjAwOjAwOjAwLjAuMC4wLjAFAAAAAAAAAAgAAAAaKEludmFsaWQgUmVzdGF0ZW1lbnQgVHlwZSlYLVtR/VzZCETNdlH9XNkIJkNJUS4wLklRX1RPVEFMX1JFVi4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QiIQndR/VzZCCZDSVEuMC5JUV9UT1RBTF9SRVYuLjMxLzEyLzE5MDEuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkIIH92Uf1c2QgfQ0lRLjAuSVFfQ09HUy4uMDA6MDA6MDAuMC4wLjAuMAUAAAAAAAAACAAAABooSW52YWxpZCBSZXN0YXRlbWVudCBUeXBlKVgtW1H9XNkI1d53Uf1c2QghQ0lRLjAuSVFfQ09HUy4uMzEvMTIvMTkwMC4wLjAuMC4wBQAAAAAAAAAIAAAAGihJbnZhbGlkIFJlc3RhdGVtZW50IFR5cGUpWC1bUf1c2QjClHVR/VzZ</t>
+  </si>
+  <si>
+    <t>ZmllcilLpkCYAl3ZCLYdYfpkXdkIHkNJUS4uSVFfSU5URVJFU1RfRVhQX0VTVC4uLi4uLgUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUumQJgCXdkIth1h+mRd2QgwQ0lRLjAuSVFfR1JPU1NfTUFSR0lOX0VTVC5GWTE5MDAuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKboWWZVlXdkInBY7YG1d2QgwQ0lRLjAuSVFfR1JPU1NfTUFSR0lOX0VTVC5GWTE5MDEuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKcfvnJplXdkInBY7YG1d2QgwQ0lRLjAuSVFfR1JPU1NfTUFSR0lOX0VTVC5GWTE5MDIuMDA6MDA6MDAuLjAuMC4wBQAAAAAAAAAIAAAAFShJbnZhbGlkIEZpbGluZyBNb2RlKcfvnJplXdkInBY7YG1d2QgeQ0lRLi5JUV9HUk9TU19NQVJHSU5fRVNULi4uLi4uBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpbsT6yGVd2Qi4lqjsZV3ZCCpDSVEuMC5JUV9HUk9TU19NQVJHSU5fRVNULi4wMDowMDowMC4uMC4wLjAFAAAAAAAAAAgAAAAVKEludmFsaWQgRmlsaW5nIE1vZGUpbsT6yGVd2QjOvajsZV3ZCA==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="20">
+  <numFmts count="21">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.0_);\(&quot;£&quot;#,##0.0\)"/>
@@ -1127,8 +1139,9 @@
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="#,##0.0_);\(#,##0.0\);\-"/>
     <numFmt numFmtId="182" formatCode="#,##0.0"/>
+    <numFmt numFmtId="184" formatCode="0%;\(0%\);\-"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,13 +1381,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1405,13 +1411,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1494,6 +1493,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1978,7 +1983,7 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2231,41 +2236,41 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="9" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="18" applyFont="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="8" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="8" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="9" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="9" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="14" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2277,50 +2282,38 @@
     <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="14" fillId="0" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="5" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="5" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="5" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="10" fillId="0" borderId="5" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" xfId="18" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="43" fillId="0" borderId="0" xfId="18" applyFont="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="46" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="0" xfId="18" applyFont="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2328,19 +2321,18 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="46" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="14" fillId="0" borderId="15" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="14" fillId="0" borderId="11" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="175" fontId="14" fillId="0" borderId="15" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="4" borderId="6" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="169" fontId="10" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="48" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="46" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="13" fillId="8" borderId="0" xfId="26" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
@@ -2432,7 +2424,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2451,13 +2443,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="45" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2477,7 +2469,7 @@
     <xf numFmtId="176" fontId="13" fillId="10" borderId="0" xfId="26" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2495,11 +2487,80 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="52" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="50" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2908,7 +2969,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2929,20 +2990,20 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="241" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -2951,19 +3012,19 @@
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="240" t="s">
-        <v>268</v>
+      <c r="B8" s="229" t="s">
+        <v>259</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="72"/>
@@ -2974,10 +3035,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="72" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="244"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2985,7 +3046,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="72" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="108"/>
@@ -3009,19 +3070,19 @@
       <c r="B12" s="72"/>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="167"/>
+      <c r="E12" s="163"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="240" t="s">
-        <v>284</v>
+      <c r="B13" s="229" t="s">
+        <v>275</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="167"/>
+      <c r="E13" s="163"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="72" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="110"/>
@@ -3029,7 +3090,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="72" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="107"/>
@@ -3059,65 +3120,65 @@
       <c r="F18" s="72"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>285</v>
+      <c r="B19" s="229" t="s">
+        <v>276</v>
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="107"/>
-      <c r="E20" s="245" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="245" t="s">
-        <v>211</v>
+      <c r="E20" s="234" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="234" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="72" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="108"/>
-      <c r="E21" s="167"/>
+      <c r="E21" s="163"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="72" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="108"/>
-      <c r="E22" s="167"/>
+      <c r="E22" s="163"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="72" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C23" s="50"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="167"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="163"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="240" t="s">
+      <c r="B25" s="229" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="167"/>
+      <c r="E25" s="163"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="72" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C26" s="50"/>
-      <c r="D26" s="234"/>
+      <c r="D26" s="223"/>
       <c r="E26" s="111" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
@@ -3125,49 +3186,49 @@
         <v>0</v>
       </c>
       <c r="C27" s="50"/>
-      <c r="D27" s="234"/>
-      <c r="E27" s="167"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="163"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="72" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C28" s="50"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="167"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="163"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="50"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="167"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="163"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="72" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C30" s="50"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="167"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="163"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="72" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="50"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="167"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="163"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="72"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
-      <c r="E32" s="167"/>
+      <c r="E32" s="163"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="240" t="s">
+      <c r="B33" s="229" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="50"/>
@@ -3190,10 +3251,10 @@
       </c>
       <c r="C35" s="50"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="245" t="s">
+      <c r="E35" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="245" t="s">
+      <c r="F35" s="234" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3203,14 +3264,14 @@
       </c>
       <c r="C36" s="50"/>
       <c r="D36" s="107" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E36" s="113"/>
       <c r="F36" s="72"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="72" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C37" s="50"/>
       <c r="D37" s="107"/>
@@ -3219,7 +3280,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="72" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="107"/>
@@ -3230,7 +3291,7 @@
       <c r="B39" s="72"/>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
-      <c r="E39" s="167"/>
+      <c r="E39" s="163"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3253,1037 +3314,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F336EB3-AE15-435C-BFD5-7698A0145ECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC871AF4-7FC7-4AA0-BA51-612CB3BC3922}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF1440AA"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" topLeftCell="A1048576" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.69140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.23046875" customWidth="1"/>
-    <col min="3" max="3" width="9.921875" customWidth="1"/>
-    <col min="4" max="4" width="20.765625" customWidth="1"/>
-    <col min="5" max="7" width="15.84375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="G1" s="205"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="253" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="239">
-        <f>Assumptions!D20</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="171" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="171" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119">
-        <f>YEAR($D$32)</f>
-        <v>1900</v>
-      </c>
-      <c r="F11" s="120">
-        <f>$E$11+COLUMN(F11)-COLUMN($E$11)</f>
-        <v>1901</v>
-      </c>
-      <c r="G11" s="120">
-        <f t="shared" ref="G11" si="0">$E$11+COLUMN(G11)-COLUMN($E$11)</f>
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="123" t="str">
-        <f>"FY"&amp;E11</f>
-        <v>FY1900</v>
-      </c>
-      <c r="F12" s="123" t="str">
-        <f t="shared" ref="F12" si="1">"FY"&amp;F11</f>
-        <v>FY1901</v>
-      </c>
-      <c r="G12" s="123" t="str">
-        <f t="shared" ref="G12" si="2">"FY"&amp;G11</f>
-        <v>FY1902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="164" t="e">
-        <f>IF($D$8=$E$8,IF(NOT(E42=0),E42,E59),E59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="164" t="e">
-        <f>IF($D$8=$E$8,IF(NOT(F42=0),F42,F59),F59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="164" t="e">
-        <f>IF($D$8=$E$8,IF(NOT(G42=0),G42,G59),G59)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="162" t="e">
-        <f>E60</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="162" t="e">
-        <f t="shared" ref="F14" si="3">F60</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="162" t="e">
-        <f t="shared" ref="G14" si="4">G60</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="162" t="e">
-        <f t="shared" ref="E15:F22" si="5">IF($D$8=$E$8,IF(NOT(E43=0),E43,E61),E61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="162" t="e">
-        <f t="shared" ref="G15" si="6">IF($D$8=$E$8,IF(NOT(G43=0),G43,G61),G61)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="162" t="e">
-        <f t="shared" ref="G16" si="7">IF($D$8=$E$8,IF(NOT(G44=0),G44,G62),G62)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="162" t="e">
-        <f t="shared" ref="G17" si="8">IF($D$8=$E$8,IF(NOT(G45=0),G45,G63),G63)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="162" t="e">
-        <f t="shared" ref="G18" si="9">IF($D$8=$E$8,IF(NOT(G46=0),G46,G64),G64)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="162" t="e">
-        <f t="shared" ref="G19" si="10">IF($D$8=$E$8,IF(NOT(G47=0),G47,G65),G65)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="166" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" s="162" t="e">
-        <f t="shared" ref="G20" si="11">IF($D$8=$E$8,IF(NOT(G48=0),G48,G66),G66)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" s="162" t="e">
-        <f t="shared" ref="G21" si="12">IF($D$8=$E$8,IF(NOT(G49=0),G49,G67),G67)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="162" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" s="162" t="e">
-        <f t="shared" ref="G22" si="13">IF($D$8=$E$8,IF(NOT(G50=0),G50,G68),G68)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="8"/>
-      <c r="B23" s="175" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="165" t="e">
-        <f>E69</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="165" t="e">
-        <f t="shared" ref="F23" si="14">F69</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" s="165" t="e">
-        <f t="shared" ref="G23" si="15">G69</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="253" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="254"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="110"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="239">
-        <f>Assumptions!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="110"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="241">
-        <f>Assumptions!D21</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="112"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="241">
-        <f>Assumptions!D22</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="167"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="239">
-        <f>Assumptions!D15</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="110"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="239">
-        <f>Assumptions!D16</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="113" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D35" s="243"/>
-      <c r="E35" s="115" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="239">
-        <f>Assumptions!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="113"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="239">
-        <f>Assumptions!D17</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="110"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E38" s="114"/>
-    </row>
-    <row r="39" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="116" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="119">
-        <f>YEAR($D$32)</f>
-        <v>1900</v>
-      </c>
-      <c r="F40" s="120">
-        <f>$E$40+COLUMN(F40)-COLUMN($E$40)</f>
-        <v>1901</v>
-      </c>
-      <c r="G40" s="120">
-        <f t="shared" ref="G40" si="16">$E$40+COLUMN(G40)-COLUMN($E$40)</f>
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="121"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="123" t="str">
-        <f>"FY"&amp;E40</f>
-        <v>FY1900</v>
-      </c>
-      <c r="F41" s="123" t="str">
-        <f t="shared" ref="F41" si="17">"FY"&amp;F40</f>
-        <v>FY1901</v>
-      </c>
-      <c r="G41" s="123" t="str">
-        <f t="shared" ref="G41" si="18">"FY"&amp;G40</f>
-        <v>FY1902</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="164" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D42, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F42" s="164" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D42, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G42" s="164" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D42, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="130" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D43, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F43" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D43, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G43" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D43, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="130" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D44, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F44" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D44, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G44" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D44, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D45, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F45" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D45, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G45" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D45, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="133" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D46, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F46" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D46, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G46" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D46, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D47, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F47" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D47, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G47" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D47, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="166" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D48, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F48" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D48, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G48" s="162" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D48, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="163" t="s">
-        <v>199</v>
-      </c>
-      <c r="E49" s="162" t="e">
-        <f>-_xll.ciqfunctions.udf.CIQ($D$29, $D49, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" s="162" t="e">
-        <f>-_xll.ciqfunctions.udf.CIQ($D$29, $D49, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" s="162" t="e">
-        <f>-_xll.ciqfunctions.udf.CIQ($D$29, $D49, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="175" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="176" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="165" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D50, E$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="F50" s="165" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D50, F$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-      <c r="G50" s="165" t="str">
-        <f>_xll.ciqfunctions.udf.CIQ($D$29, $D50, G$41, $D$31, , $D$34, $D$36, $D$37)</f>
-        <v>(Invalid Filing Mode)</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B53" s="253" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="254"/>
-      <c r="D53" s="254"/>
-      <c r="E53" s="254"/>
-      <c r="F53" s="254"/>
-      <c r="G53" s="254"/>
-      <c r="H53" s="254"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B55" s="116" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="173" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
-      <c r="E56" s="174"/>
-      <c r="F56" s="174"/>
-      <c r="G56" s="174"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B57" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="187">
-        <f>$E$57+COLUMN(D57)-COLUMN($E$57)</f>
-        <v>1899</v>
-      </c>
-      <c r="E57" s="119">
-        <f>YEAR($D$32)</f>
-        <v>1900</v>
-      </c>
-      <c r="F57" s="120">
-        <f>$E$57+COLUMN(F57)-COLUMN($E$57)</f>
-        <v>1901</v>
-      </c>
-      <c r="G57" s="120">
-        <f t="shared" ref="G57" si="19">$E$57+COLUMN(G57)-COLUMN($E$57)</f>
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="121"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="188" t="str">
-        <f>"FY"&amp;D57</f>
-        <v>FY1899</v>
-      </c>
-      <c r="E58" s="123" t="str">
-        <f>"FY"&amp;E57</f>
-        <v>FY1900</v>
-      </c>
-      <c r="F58" s="123" t="str">
-        <f t="shared" ref="F58" si="20">"FY"&amp;F57</f>
-        <v>FY1901</v>
-      </c>
-      <c r="G58" s="123" t="str">
-        <f t="shared" ref="G58" si="21">"FY"&amp;G57</f>
-        <v>FY1902</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B59" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="189" t="str">
-        <f>IS!F21</f>
-        <v>(Invalid Restatement Type)</v>
-      </c>
-      <c r="E59" s="168" t="e">
-        <f>IS!F21*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="168" t="e">
-        <f>$E59*(1+DCF!$C$9)^(COLUMN(F59)-COLUMN($E59))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" s="168" t="e">
-        <f>$E59*(1+DCF!$C$9)^(COLUMN(G59)-COLUMN($E59))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" s="190" t="e">
-        <f>IS!F22+IS!F27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="169" t="e">
-        <f>(IS!F22+IS!F27)*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="169" t="e">
-        <f>$E60*(1+DCF!$C$9)^(COLUMN(F60)-COLUMN($E60))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="169" t="e">
-        <f>$E60*(1+DCF!$C$9)^(COLUMN(G60)-COLUMN($E60))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="190" t="e">
-        <f>IS!F28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="169" t="e">
-        <f>IS!F28*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="169" t="e">
-        <f>$E61*(1+DCF!$C$9)^(COLUMN(F61)-COLUMN($E61))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="169" t="e">
-        <f>$E61*(1+DCF!$C$9)^(COLUMN(G61)-COLUMN($E61))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="190" t="e">
-        <f>IS!F30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E62" s="169" t="e">
-        <f>IS!F30*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" s="169" t="e">
-        <f>$E62*(1+DCF!$C$9)^(COLUMN(F62)-COLUMN($E62))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G62" s="169" t="e">
-        <f>$E62*(1+DCF!$C$9)^(COLUMN(G62)-COLUMN($E62))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="190" t="str">
-        <f>IS!F31</f>
-        <v>(Invalid Restatement Type)</v>
-      </c>
-      <c r="E63" s="169" t="e">
-        <f>IS!F31*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" s="169" t="e">
-        <f>$E63*(1+DCF!$C$9)^(COLUMN(F63)-COLUMN($E63))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" s="169" t="e">
-        <f>$E63*(1+DCF!$C$9)^(COLUMN(G63)-COLUMN($E63))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B64" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="190" t="e">
-        <f>(IS!F36-IS!F35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E64" s="169" t="e">
-        <f>(IS!F36-IS!F35)*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="169" t="e">
-        <f>$E64*(1+DCF!$C$9)^(COLUMN(F64)-COLUMN($E64))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" s="169" t="e">
-        <f>$E64*(1+DCF!$C$9)^(COLUMN(G64)-COLUMN($E64))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="190" t="str">
-        <f>IS!F39</f>
-        <v>(Invalid Restatement Type)</v>
-      </c>
-      <c r="E65" s="169" t="e">
-        <f>IS!F39*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" s="169" t="e">
-        <f>$E65*(1+DCF!$C$9)^(COLUMN(F65)-COLUMN($E65))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G65" s="169" t="e">
-        <f>$E65*(1+DCF!$C$9)^(COLUMN(G65)-COLUMN($E65))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="166" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="190" t="e">
-        <f>(BS!E41+BS!E47-BS!E22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E66" s="169" t="e">
-        <f>(BS!E41+BS!E47-BS!E22)*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" s="169" t="e">
-        <f>$E66*(1+DCF!$C$9)^(COLUMN(F66)-COLUMN($E66))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G66" s="169" t="e">
-        <f>$E66*(1+DCF!$C$9)^(COLUMN(G66)-COLUMN($E66))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="190" t="e">
-        <f>IS!F29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E67" s="169" t="e">
-        <f>IS!F29*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" s="169" t="e">
-        <f>$E67*(1+DCF!$C$9)^(COLUMN(F67)-COLUMN($E67))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G67" s="169" t="e">
-        <f>$E67*(1+DCF!$C$9)^(COLUMN(G67)-COLUMN($E67))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="190" t="str">
-        <f>CFS!F25</f>
-        <v>(Invalid Restatement Type)</v>
-      </c>
-      <c r="E68" s="169" t="e">
-        <f>CFS!F25*(1+DCF!$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" s="169" t="e">
-        <f>$E68*(1+DCF!$C$9)^(COLUMN(F68)-COLUMN($E68))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" s="169" t="e">
-        <f>$E68*(1+DCF!$C$9)^(COLUMN(G68)-COLUMN($E68))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="191" t="e">
-        <f>(BS!F29-BS!F46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E69" s="197" t="e">
-        <f>$D$69/$D$59*E59</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" s="170" t="e">
-        <f>$E69*(1+DCF!$C$9)^(COLUMN(F69)-COLUMN($E69))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G69" s="170" t="e">
-        <f>$E69*(1+DCF!$C$9)^(COLUMN(G69)-COLUMN($E69))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" s="172"/>
-      <c r="D70" s="172"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="172"/>
-      <c r="G70" s="172"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4292,7 +3335,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4310,24 +3353,24 @@
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="G1" s="205"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
-        <v>280</v>
+      <c r="B3" s="241" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -4335,21 +3378,21 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="243"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+      <c r="N6" s="243"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="116" t="s">
@@ -4364,7 +3407,7 @@
         <v>91</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="239">
+      <c r="D9" s="228">
         <f>Assumptions!D9</f>
         <v>0</v>
       </c>
@@ -4375,17 +3418,17 @@
         <v>35</v>
       </c>
       <c r="C10" s="50"/>
-      <c r="D10" s="239"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="111" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="72" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="241">
+      <c r="D11" s="230">
         <f>Assumptions!D14</f>
         <v>0</v>
       </c>
@@ -4393,10 +3436,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="72" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C12" s="50"/>
-      <c r="D12" s="239">
+      <c r="D12" s="228">
         <f>Assumptions!D15</f>
         <v>0</v>
       </c>
@@ -4407,7 +3450,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="50"/>
-      <c r="D13" s="239">
+      <c r="D13" s="228">
         <f>Assumptions!D16</f>
         <v>0</v>
       </c>
@@ -4416,7 +3459,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D14" s="243"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="115" t="s">
         <v>89</v>
       </c>
@@ -4426,7 +3469,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="50"/>
-      <c r="D15" s="239">
+      <c r="D15" s="228">
         <f>Assumptions!D11</f>
         <v>0</v>
       </c>
@@ -4437,14 +3480,14 @@
         <v>16</v>
       </c>
       <c r="C16" s="50"/>
-      <c r="D16" s="239">
+      <c r="D16" s="228">
         <f>Assumptions!D17</f>
         <v>0</v>
       </c>
       <c r="E16" s="110"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D17" s="243"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="114"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -4617,20 +3660,20 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="177" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180" t="e">
+      <c r="B27" s="167" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="170" t="e">
         <f>SUM(E24:E26)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="180" t="e">
+      <c r="F27" s="170" t="e">
         <f t="shared" ref="F27:G27" si="2">SUM(F24:F26)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" s="180" t="e">
+      <c r="G27" s="170" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -4915,7 +3958,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4933,24 +3976,24 @@
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="G1" s="205"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
-        <v>281</v>
+      <c r="B3" s="241" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -4958,21 +4001,21 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="242" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="243"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+      <c r="N6" s="243"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="116" t="s">
@@ -4987,7 +4030,7 @@
         <v>91</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="239">
+      <c r="D9" s="228">
         <f>Assumptions!D9</f>
         <v>0</v>
       </c>
@@ -4998,7 +4041,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="50"/>
-      <c r="D10" s="239"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="111" t="s">
         <v>36</v>
       </c>
@@ -5008,7 +4051,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="241">
+      <c r="D11" s="230">
         <f>Assumptions!D14</f>
         <v>0</v>
       </c>
@@ -5016,10 +4059,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="72" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C12" s="50"/>
-      <c r="D12" s="239">
+      <c r="D12" s="228">
         <f>Assumptions!D15</f>
         <v>0</v>
       </c>
@@ -5030,7 +4073,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="50"/>
-      <c r="D13" s="239">
+      <c r="D13" s="228">
         <f>Assumptions!D16</f>
         <v>0</v>
       </c>
@@ -5039,7 +4082,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D14" s="243"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="115" t="s">
         <v>89</v>
       </c>
@@ -5049,7 +4092,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="50"/>
-      <c r="D15" s="239">
+      <c r="D15" s="228">
         <f>Assumptions!D11</f>
         <v>0</v>
       </c>
@@ -5060,7 +4103,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="50"/>
-      <c r="D16" s="239">
+      <c r="D16" s="228">
         <f>Assumptions!D17</f>
         <v>0</v>
       </c>
@@ -6040,24 +5083,24 @@
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="G1" s="205"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
-        <v>282</v>
+      <c r="B3" s="241" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -6065,21 +5108,21 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="253" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
+      <c r="B6" s="242" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="243"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+      <c r="N6" s="243"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="116" t="s">
@@ -6094,7 +5137,7 @@
         <v>91</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="239">
+      <c r="D9" s="228">
         <f>Assumptions!D9</f>
         <v>0</v>
       </c>
@@ -6105,17 +5148,17 @@
         <v>35</v>
       </c>
       <c r="C10" s="50"/>
-      <c r="D10" s="239"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="111" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="72" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="241">
+      <c r="D11" s="230">
         <f>Assumptions!D14</f>
         <v>0</v>
       </c>
@@ -6123,10 +5166,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="72" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C12" s="50"/>
-      <c r="D12" s="239">
+      <c r="D12" s="228">
         <f>Assumptions!D15</f>
         <v>0</v>
       </c>
@@ -6137,7 +5180,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="50"/>
-      <c r="D13" s="239">
+      <c r="D13" s="228">
         <f>Assumptions!D16</f>
         <v>0</v>
       </c>
@@ -6146,7 +5189,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D14" s="243"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="115" t="s">
         <v>89</v>
       </c>
@@ -6156,7 +5199,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="50"/>
-      <c r="D15" s="239">
+      <c r="D15" s="228">
         <f>Assumptions!D11</f>
         <v>0</v>
       </c>
@@ -6167,18 +5210,18 @@
         <v>16</v>
       </c>
       <c r="C16" s="50"/>
-      <c r="D16" s="239">
+      <c r="D16" s="228">
         <f>Assumptions!D17</f>
         <v>0</v>
       </c>
       <c r="E16" s="110"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D17" s="243"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="114"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D18" s="243"/>
+      <c r="D18" s="232"/>
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
@@ -6221,10 +5264,10 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D21" s="130" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E21" s="145" t="str" cm="1">
         <f t="array" ref="E21">_xll.ciqfunctions.udf.CIQ($D$9,$D21,$D$10,E$20,$D$12,$D$13,$D$15,$D$16)</f>
@@ -6242,10 +5285,10 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D22" s="130" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E22" s="145" t="str" cm="1">
         <f t="array" ref="E22">_xll.ciqfunctions.udf.CIQ($D$9,$D22,$D$10,E$20,$D$12,$D$13,$D$15,$D$16)</f>
@@ -6263,11 +5306,11 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="133" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E23" s="152" t="str" cm="1">
         <f t="array" ref="E23">_xll.ciqfunctions.udf.CIQ($D$9,$D23,$D$10,E$20,$D$12,$D$13,$D$15,$D$16)</f>
@@ -6285,11 +5328,11 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="133" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E24" s="152" t="str" cm="1">
         <f t="array" ref="E24">_xll.ciqfunctions.udf.CIQ($D$9,$D24,$D$10,E$20,$D$12,$D$13,$D$15,$D$16)</f>
@@ -6311,7 +5354,7 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="133" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E25" s="152" t="str" cm="1">
         <f t="array" ref="E25">_xll.ciqfunctions.udf.CIQ($D$9,$D25,$D$10,E$20,$D$12,$D$13,$D$15,$D$16)</f>
@@ -6328,11 +5371,11 @@
     </row>
     <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="160" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E26" s="161" t="str" cm="1">
         <f t="array" ref="E26">_xll.ciqfunctions.udf.CIQ($D$9,$D26,$D$10,E$20,$D$12,$D$13,$D$15,$D$16)</f>
@@ -6394,122 +5437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5103D5-99AB-4CAE-80AA-D6779D29694E}">
-  <dimension ref="A1:AE1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O1" t="s">
-        <v>306</v>
-      </c>
-      <c r="P1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>308</v>
-      </c>
-      <c r="R1" t="s">
-        <v>309</v>
-      </c>
-      <c r="S1" t="s">
-        <v>310</v>
-      </c>
-      <c r="T1" t="s">
-        <v>311</v>
-      </c>
-      <c r="U1" t="s">
-        <v>312</v>
-      </c>
-      <c r="V1" t="s">
-        <v>313</v>
-      </c>
-      <c r="W1" t="s">
-        <v>314</v>
-      </c>
-      <c r="X1" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74EC6BE-E931-459B-9911-101FA66B3EAA}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6527,20 +5462,20 @@
     </row>
     <row r="2" spans="1:9" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="241" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -6551,10 +5486,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
-      <c r="B6" s="255" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="256"/>
+      <c r="B6" s="244" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="245"/>
       <c r="E6" s="21"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -6568,10 +5503,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
-      <c r="B8" s="257" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="258">
+      <c r="B8" s="246" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="247">
         <f>Assumptions!$D$10</f>
         <v>0</v>
       </c>
@@ -6580,30 +5515,30 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="259" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="260">
+      <c r="B9" s="248" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="249">
         <f>Assumptions!$D$23</f>
         <v>0</v>
       </c>
       <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="259" t="s">
+      <c r="B10" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="260">
+      <c r="C10" s="249">
         <f>Assumptions!$D$31</f>
         <v>0</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="261" t="s">
+      <c r="B11" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="262" t="e">
+      <c r="C11" s="251" t="e">
         <f>IF(OR(ISBLANK(Assumptions!D26),Assumptions!D26=""),'Discount rate'!C26,Assumptions!D26)</f>
         <v>#VALUE!</v>
       </c>
@@ -6614,11 +5549,11 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="194" t="e">
-        <f>SUM($49:$49)</f>
-        <v>#VALUE!</v>
+        <v>195</v>
+      </c>
+      <c r="C13" s="184" t="e">
+        <f>SUM($52:$52)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -6643,11 +5578,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="193" t="e">
+        <v>231</v>
+      </c>
+      <c r="C16" s="183" t="e">
         <f>SUM($C$13:$C$15)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D16" s="30"/>
     </row>
@@ -6660,7 +5595,7 @@
       </c>
       <c r="C18" s="28" t="e">
         <f>C13</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
@@ -6674,11 +5609,11 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="196" t="e">
+        <v>230</v>
+      </c>
+      <c r="C20" s="186" t="e">
         <f>C18/C19</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
@@ -6690,54 +5625,54 @@
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="255" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="255"/>
+      <c r="B23" s="244" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="14"/>
-      <c r="D24" s="186">
+      <c r="D24" s="176">
         <f>DATE(YEAR($F$24)+COLUMN(D24)-COLUMN($F$24),MONTH($F$24),DAY($F$24))</f>
         <v>693232</v>
       </c>
-      <c r="E24" s="186">
+      <c r="E24" s="176">
         <f>DATE(YEAR($F$24)+COLUMN(E24)-COLUMN($F$24),MONTH($F$24),DAY($F$24))</f>
         <v>693597</v>
       </c>
-      <c r="F24" s="246">
+      <c r="F24" s="235">
         <f>forecastStart</f>
         <v>0</v>
       </c>
-      <c r="G24" s="186">
+      <c r="G24" s="176">
         <f>DATE(YEAR($F$24)+COLUMN(G24)-COLUMN($F$24),MONTH($F$24),DAY($F$24))</f>
         <v>366</v>
       </c>
-      <c r="H24" s="186">
+      <c r="H24" s="176">
         <f>DATE(YEAR($F$24)+COLUMN(H24)-COLUMN($F$24),MONTH($F$24),DAY($F$24))</f>
         <v>731</v>
       </c>
-      <c r="I24" s="186">
+      <c r="I24" s="176">
         <f t="shared" ref="I24" si="0">DATE(YEAR($F$24)+COLUMN(I24)-COLUMN($F$24),MONTH($F$24),DAY($F$24))</f>
         <v>1096</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="87" t="e">
-        <f>curr+" million"</f>
-        <v>#VALUE!</v>
+      <c r="B25" s="87" t="str">
+        <f>_xlfn.CONCAT(curr," million")</f>
+        <v xml:space="preserve"> million</v>
       </c>
       <c r="C25" s="70"/>
       <c r="D25" s="71">
@@ -6760,36 +5695,36 @@
         <f t="shared" si="1"/>
         <v>1901</v>
       </c>
-      <c r="I25" s="195" t="s">
-        <v>288</v>
+      <c r="I25" s="185" t="s">
+        <v>279</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="14"/>
       <c r="C26" s="142"/>
-      <c r="D26" s="184" t="s">
+      <c r="D26" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="184" t="s">
+      <c r="E26" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="184" t="s">
+      <c r="F26" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="184" t="s">
+      <c r="G26" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="184" t="s">
+      <c r="H26" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="185" t="s">
+      <c r="I26" s="175" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
@@ -6807,599 +5742,695 @@
       </c>
       <c r="F27" s="10" t="e">
         <f>INDEX(Forecasts!$13:$13,MATCH(F$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="G27" s="10" t="e">
         <f>INDEX(Forecasts!$13:$13,MATCH(G$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="H27" s="10" t="e">
         <f>INDEX(Forecasts!$13:$13,MATCH(H$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="30"/>
-      <c r="C28" s="181" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247" t="e">
+      <c r="C28" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="236" t="e">
         <f ca="1">F27/OFFSET(F27,0,-1)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="247" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="236" t="e">
         <f t="shared" ref="G28:H28" ca="1" si="2">G27/OFFSET(G27,0,-1)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="247" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H28" s="236" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I28" s="22">
         <f>$C$9</f>
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="11" t="s">
-        <v>254</v>
+      <c r="B29" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="C29" s="132"/>
       <c r="D29" s="10" t="e">
-        <f>INDEX(IS!$27:$27,MATCH(D$25,IS!$19:$19,0))</f>
+        <f>INDEX(IS!$22:$22,MATCH(D$25,IS!$19:$19,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E29" s="10" t="e">
-        <f>INDEX(IS!$27:$27,MATCH(E$25,IS!$19:$19,0))</f>
+        <f>INDEX(IS!$22:$22,MATCH(E$25,IS!$19:$19,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F29" s="10" t="e">
         <f>INDEX(Forecasts!$14:$14,MATCH(F$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="G29" s="10" t="e">
         <f>INDEX(Forecasts!$14:$14,MATCH(G$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="H29" s="10" t="e">
         <f>INDEX(Forecasts!$14:$14,MATCH(H$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>287</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="263"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="11"/>
-      <c r="C30" s="181" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="171" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="236" t="e">
+        <f>D31/D27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="236" t="e">
+        <f t="shared" ref="E30:H30" si="3">E31/E27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="236" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="236" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="236" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="264"/>
+      <c r="D31" s="265" t="e">
+        <f>D27+D29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="265" t="e">
+        <f>E27+E29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="265" t="e">
+        <f>F27+F29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="265" t="e">
+        <f>G27+G29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="265" t="e">
+        <f>H27+H29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="265"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="132"/>
+      <c r="D32" s="10" t="e">
+        <f>INDEX(IS!$27:$27,MATCH(D$25,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="10" t="e">
+        <f>INDEX(IS!$27:$27,MATCH(E$25,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="10" t="e">
+        <f>INDEX(Forecasts!$16:$16,MATCH(F$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="10" t="e">
+        <f>INDEX(Forecasts!$16:$16,MATCH(G$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" s="10" t="e">
+        <f>INDEX(Forecasts!$16:$16,MATCH(H$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="11"/>
+      <c r="C33" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="247" t="e">
-        <f>F31/F27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="247" t="e">
-        <f t="shared" ref="G30:H30" si="3">G31/G27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="247" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="15" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="236" t="e">
+        <f>F34/F27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="236" t="e">
+        <f>G34/G27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" s="236" t="e">
+        <f>H34/H27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="182"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42" t="e">
-        <f>E27+E29</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="42" t="e">
-        <f t="shared" ref="F31:H31" si="4">F27+F29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="42" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="42" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="11"/>
-      <c r="C32" s="181" t="s">
+      <c r="C34" s="172"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42" t="e">
+        <f>E31+E32</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="42" t="e">
+        <f>F31+F32</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="42" t="e">
+        <f>G31+G32</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" s="42" t="e">
+        <f>H31+H32</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="11"/>
+      <c r="C35" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="248">
+      <c r="D35" s="10"/>
+      <c r="E35" s="237">
         <f>$C$10</f>
         <v>0</v>
       </c>
-      <c r="F32" s="248">
-        <f t="shared" ref="F32:H32" si="5">$C$10</f>
+      <c r="F35" s="237">
+        <f t="shared" ref="F35:H35" si="4">$C$10</f>
         <v>0</v>
       </c>
-      <c r="G32" s="248">
+      <c r="G35" s="237">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="237">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="173"/>
+      <c r="D36" s="10" t="e">
+        <f>INDEX(IS!$37:$37,MATCH(D$25,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="10" t="e">
+        <f>INDEX(IS!$37:$37,MATCH(E$25,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="10" t="e">
+        <f t="shared" ref="F36:H36" si="5">-F34*F$35</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="248">
+        <v>#N/A</v>
+      </c>
+      <c r="H36" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="10" t="e">
-        <f>INDEX(IS!$37:$37,MATCH(D$25,IS!$19:$19,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="10" t="e">
-        <f>INDEX(IS!$37:$37,MATCH(E$25,IS!$19:$19,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="10" t="e">
-        <f t="shared" ref="F33:H33" si="6">-F31*F$32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="132"/>
+      <c r="D37" s="10" t="e">
         <f>-INDEX(IS!$29:$29,MATCH(D$25,IS!$19:$19,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="E34" s="10" t="e">
+      <c r="E37" s="10" t="e">
         <f>-INDEX(IS!$29:$29,MATCH(E$25,IS!$19:$19,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F34" s="10" t="e">
-        <f>-INDEX(Forecasts!$21:$21,MATCH(F$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="10" t="e">
-        <f>-INDEX(Forecasts!$21:$21,MATCH(G$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="10" t="e">
-        <f>-INDEX(Forecasts!$21:$21,MATCH(H$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="34" t="e">
+      <c r="F37" s="10" t="e">
+        <f>-INDEX(Forecasts!$18:$18,MATCH(F$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="10" t="e">
+        <f>-INDEX(Forecasts!$18:$18,MATCH(G$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" s="10" t="e">
+        <f>-INDEX(Forecasts!$18:$18,MATCH(H$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="133"/>
+      <c r="D38" s="34" t="e">
         <f>INDEX(CFS!$25:$25,MATCH(D$25,CFS!$19:$19,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="E35" s="34" t="e">
+      <c r="E38" s="34" t="e">
         <f>INDEX(CFS!$25:$25,MATCH(E$25,CFS!$19:$19,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F35" s="10" t="e">
-        <f>INDEX(Forecasts!$22:$22,MATCH(F$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="10" t="e">
-        <f>INDEX(Forecasts!$22:$22,MATCH(G$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="10" t="e">
-        <f>INDEX(Forecasts!$22:$22,MATCH(H$25,Forecasts!$11:$11,0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="133"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34" t="e">
-        <f>D38-E38</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" s="34" t="e">
-        <f>-(INDEX(Forecasts!$69:$69,MATCH(F$25,Forecasts!$57:$57,0))-INDEX(Forecasts!$69:$69,MATCH(F$25-1,Forecasts!$57:$57,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="34" t="e">
-        <f>-(INDEX(Forecasts!$69:$69,MATCH(G$25,Forecasts!$57:$57,0))-INDEX(Forecasts!$69:$69,MATCH(G$25-1,Forecasts!$57:$57,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="34" t="e">
-        <f>-(INDEX(Forecasts!$69:$69,MATCH(H$25,Forecasts!$57:$57,0))-INDEX(Forecasts!$69:$69,MATCH(H$25-1,Forecasts!$57:$57,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="16"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" s="131"/>
-      <c r="D38" s="249" t="e">
-        <f>SUM(D39:D40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="249" t="e">
-        <f>SUM(E39:E40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="249" t="e">
-        <f ca="1">OFFSET(F38,0,-1)-F36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="249" t="e">
-        <f t="shared" ref="G38:H38" ca="1" si="7">OFFSET(G38,0,-1)-G36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" s="249" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" s="43"/>
+      <c r="F38" s="10" t="e">
+        <f>INDEX(Forecasts!$20:$20,MATCH(F$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="10" t="e">
+        <f>INDEX(Forecasts!$20:$20,MATCH(G$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" s="10" t="e">
+        <f>INDEX(Forecasts!$20:$20,MATCH(H$25,Forecasts!$11:$11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C39" s="133"/>
-      <c r="D39" s="34" t="e">
-        <f>INDEX(BS!$29:$29,MATCH(D$25,BS!$19:$19,0))-INDEX(BS!$22:$22,MATCH(D$25,BS!$19:$19,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D39" s="34"/>
       <c r="E39" s="34" t="e">
-        <f>INDEX(BS!$29:$29,MATCH(E$25,BS!$19:$19,0))-INDEX(BS!$22:$22,MATCH(E$25,BS!$19:$19,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+        <f>D41-E41</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="34" t="e">
+        <f>-(INDEX(Forecasts!$64:$64,MATCH(F$25,Forecasts!$54:$54,0))-INDEX(Forecasts!$64:$64,MATCH(F$25-1,Forecasts!$54:$54,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="34" t="e">
+        <f>-(INDEX(Forecasts!$64:$64,MATCH(G$25,Forecasts!$54:$54,0))-INDEX(Forecasts!$64:$64,MATCH(G$25-1,Forecasts!$54:$54,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" s="34" t="e">
+        <f>-(INDEX(Forecasts!$64:$64,MATCH(H$25,Forecasts!$54:$54,0))-INDEX(Forecasts!$64:$64,MATCH(H$25-1,Forecasts!$54:$54,0)))</f>
+        <v>#N/A</v>
+      </c>
       <c r="I39" s="12"/>
       <c r="J39" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="133"/>
-      <c r="D40" s="34" t="e">
-        <f>-INDEX(BS!$46:$46,MATCH(D$25,BS!$19:$19,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="34" t="e">
-        <f>-INDEX(BS!$46:$46,MATCH(E$25,BS!$19:$19,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="12"/>
-      <c r="C41" s="192" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="250" t="e">
-        <f>IF(E38/E27&lt;0, "n/a", E38/E27)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F41" s="250" t="e">
-        <f ca="1">IF(F38/F27&lt;0, "NM", F38/F27)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G41" s="250" t="e">
-        <f ca="1">IF(G38/G27&lt;0, "NM", G38/G27)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H41" s="250" t="e">
-        <f ca="1">IF(H38/H27&lt;0, "NM", H38/H27)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I41" s="12"/>
+      <c r="B41" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="131"/>
+      <c r="D41" s="238" t="e">
+        <f>SUM(D42:D43)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="238" t="e">
+        <f>SUM(E42:E43)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="238" t="e">
+        <f ca="1">OFFSET(F41,0,-1)-F39</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G41" s="238" t="e">
+        <f t="shared" ref="G41:H41" ca="1" si="6">OFFSET(G41,0,-1)-G39</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H41" s="238" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" s="43"/>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="192" t="s">
-        <v>235</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C42" s="133"/>
       <c r="D42" s="34" t="e">
-        <f t="shared" ref="D42:H42" si="8">D31+D33</f>
+        <f>INDEX(BS!$29:$29,MATCH(D$25,BS!$19:$19,0))-INDEX(BS!$22:$22,MATCH(D$25,BS!$19:$19,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E42" s="34" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F42" s="34" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" s="34" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H42" s="34" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
+        <f>INDEX(BS!$29:$29,MATCH(E$25,BS!$19:$19,0))-INDEX(BS!$22:$22,MATCH(E$25,BS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
       <c r="I42" s="12"/>
       <c r="J42" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" s="192" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="34"/>
+        <v>240</v>
+      </c>
+      <c r="C43" s="133"/>
+      <c r="D43" s="34" t="e">
+        <f>-INDEX(BS!$46:$46,MATCH(D$25,BS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="E43" s="34" t="e">
-        <f t="shared" ref="E43:H43" ca="1" si="9">E42-OFFSET(E42,0,-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F43" s="34" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" s="34" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" s="34" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
+        <f>-INDEX(BS!$46:$46,MATCH(E$25,BS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="12"/>
       <c r="J43" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="192" t="s">
-        <v>237</v>
+      <c r="B44" s="12"/>
+      <c r="C44" s="182" t="s">
+        <v>219</v>
       </c>
       <c r="D44" s="34"/>
-      <c r="E44" s="34" t="e">
-        <f t="shared" ref="E44:H44" si="10">-(E35-E34)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F44" s="34" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" s="34" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" s="34" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+      <c r="E44" s="239" t="e">
+        <f>IF(E41/E27&lt;0, "n/a", E41/E27)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="239" t="e">
+        <f ca="1">IF(F41/F27&lt;0, "NM", F41/F27)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="239" t="e">
+        <f ca="1">IF(G41/G27&lt;0, "NM", G41/G27)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H44" s="239" t="e">
+        <f ca="1">IF(H41/H27&lt;0, "NM", H41/H27)</f>
+        <v>#N/A</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="12"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+      <c r="B45" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="182" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="34" t="e">
+        <f t="shared" ref="D45:H45" si="7">D34+D36</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46" s="142"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="e">
-        <f>E31+SUM(E33:E36)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F46" s="13" t="e">
-        <f>F31+SUM(F33:F36)</f>
+      <c r="B46" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="182" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34" t="e">
+        <f t="shared" ref="E46:H46" ca="1" si="8">E45-OFFSET(E45,0,-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="34" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="34" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H46" s="34" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="182" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34" t="e">
+        <f t="shared" ref="E47:H47" si="9">-(E38-E37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F47" s="34" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="34" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H47" s="34" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="12"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="141" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="142"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13" t="e">
+        <f>E34+SUM(E36:E39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F49" s="13" t="e">
+        <f>F34+SUM(F36:F39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="13" t="e">
+        <f>G34+SUM(G36:G39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H49" s="13" t="e">
+        <f>H34+SUM(H36:H39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49" s="13" t="e">
+        <f>H49*(1+$C$9)/($C$11-$C$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C50" s="171" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="240" t="e">
+        <f t="shared" ref="F50:H50" ca="1" si="10">F49/OFFSET(F49,0,-1)-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="240" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H50" s="240" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="132"/>
+      <c r="E51" s="18" t="e">
+        <f>IF(E24&lt;INT($C$8),1,1/(1+$C$11)^(YEARFRAC(E24,$C$8)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G46" s="13" t="e">
-        <f>G31+SUM(G33:G36)</f>
+      <c r="F51" s="18" t="e">
+        <f>IF(F24&lt;INT($C$8),1,1/(1+$C$11)^(YEARFRAC(F24,$C$8)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="13" t="e">
-        <f>H31+SUM(H33:H36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" s="13" t="e">
-        <f>H46*(1+$C$9)/($C$11-$C$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C47" s="181" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="251" t="e">
-        <f t="shared" ref="F47:H47" ca="1" si="11">F46/OFFSET(F46,0,-1)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" s="251" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H47" s="251" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="132"/>
-      <c r="E48" s="18" t="e">
-        <f t="shared" ref="E48:F48" si="12">IF(E24&lt;INT($C$8),1,1/(1+$C$11)^(YEARFRAC(E24,$C$8)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" s="18" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" s="18" t="e">
+      <c r="G51" s="18" t="e">
         <f>IF(G24&lt;INT($C$8),1,1/(1+$C$11)^(YEARFRAC(G24,$C$8)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="18" t="e">
-        <f t="shared" ref="H48" si="13">IF(H24&lt;INT($C$8),1,1/(1+$C$11)^(YEARFRAC(H24,$C$8)))</f>
+      <c r="H51" s="18" t="e">
+        <f>IF(H24&lt;INT($C$8),1,1/(1+$C$11)^(YEARFRAC(H24,$C$8)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="18" t="e">
-        <f>H48</f>
+      <c r="I51" s="18" t="e">
+        <f>H51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" s="159"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20" t="e">
-        <f>F46*F48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" s="20" t="e">
-        <f t="shared" ref="G49:I49" si="14">G46*G48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" s="20" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I49" s="20" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="205"/>
-      <c r="H50" s="10"/>
+      <c r="J51" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="159"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20" t="e">
+        <f>F49*F51</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="20" t="e">
+        <f t="shared" ref="G52:I52" si="11">G49*G51</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H52" s="20" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I52" s="20" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C95108-EDE0-4179-8B50-FB6BC550E7AC}">
+  <sheetPr>
+    <tabColor rgb="FF1440AA"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A1048576" workbookViewId="0">
+      <selection activeCell="F46" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7429,20 +6460,20 @@
     </row>
     <row r="2" spans="1:20" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="241" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
@@ -7450,10 +6481,10 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="244" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="263"/>
+      <c r="C6" s="252"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -7486,7 +6517,7 @@
       <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="206">
+      <c r="C8" s="195">
         <f>Assumptions!D27</f>
         <v>0</v>
       </c>
@@ -7508,7 +6539,7 @@
       <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="235" t="e">
+      <c r="C9" s="224" t="e">
         <f>Beta!$D$12</f>
         <v>#VALUE!</v>
       </c>
@@ -7528,9 +6559,9 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="236">
+        <v>280</v>
+      </c>
+      <c r="C10" s="225">
         <f>Assumptions!D28</f>
         <v>0</v>
       </c>
@@ -7549,7 +6580,7 @@
       <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="C11" s="237"/>
+      <c r="C11" s="226"/>
       <c r="E11" s="30"/>
       <c r="I11" s="12"/>
       <c r="J11" s="40"/>
@@ -7568,7 +6599,7 @@
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="238" t="e">
+      <c r="C12" s="227" t="e">
         <f>C8+(C9*C10)</f>
         <v>#VALUE!</v>
       </c>
@@ -7587,7 +6618,7 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="C13" s="237"/>
+      <c r="C13" s="226"/>
       <c r="E13" s="30"/>
       <c r="I13" s="12"/>
       <c r="J13" s="40"/>
@@ -7604,9 +6635,9 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="206">
+        <v>223</v>
+      </c>
+      <c r="C14" s="195">
         <f>Assumptions!D29</f>
         <v>0</v>
       </c>
@@ -7628,7 +6659,7 @@
       <c r="B15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="236">
+      <c r="C15" s="225">
         <f>DCF!$C$10</f>
         <v>0</v>
       </c>
@@ -7647,7 +6678,7 @@
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="C16" s="237"/>
+      <c r="C16" s="226"/>
       <c r="E16" s="30"/>
       <c r="I16" s="12"/>
       <c r="J16" s="40"/>
@@ -7666,7 +6697,7 @@
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="238">
+      <c r="C17" s="227">
         <f>C14*(1-C15)</f>
         <v>0</v>
       </c>
@@ -7685,7 +6716,7 @@
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C18" s="237"/>
+      <c r="C18" s="226"/>
       <c r="E18" s="30"/>
       <c r="I18" s="12"/>
       <c r="J18" s="40"/>
@@ -7704,7 +6735,7 @@
       <c r="B19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="206">
+      <c r="C19" s="195">
         <f>1-C22</f>
         <v>1</v>
       </c>
@@ -7864,8 +6895,8 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7903,20 +6934,20 @@
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="241" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -7924,20 +6955,20 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="264" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="264"/>
-      <c r="D6" s="265"/>
+      <c r="B6" s="253" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="253"/>
+      <c r="D6" s="254"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="200" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
+      <c r="F6" s="189" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -7966,7 +6997,7 @@
       <c r="C9" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="187" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="7"/>
@@ -8059,25 +7090,25 @@
       <c r="I15" s="7"/>
     </row>
     <row r="17" spans="2:18" s="60" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="264"/>
-      <c r="D17" s="265"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="265"/>
-      <c r="G17" s="265"/>
-      <c r="H17" s="265"/>
-      <c r="I17" s="265"/>
-      <c r="J17" s="265"/>
-      <c r="K17" s="265"/>
-      <c r="L17" s="265"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="265"/>
-      <c r="O17" s="265"/>
-      <c r="P17" s="265"/>
-      <c r="Q17" s="265"/>
-      <c r="R17" s="265"/>
+      <c r="C17" s="253"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="254"/>
+      <c r="O17" s="254"/>
+      <c r="P17" s="254"/>
+      <c r="Q17" s="254"/>
+      <c r="R17" s="254"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="97" t="s">
@@ -8109,7 +7140,7 @@
       <c r="B21" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="239">
+      <c r="D21" s="228">
         <f>Assumptions!D35</f>
         <v>0</v>
       </c>
@@ -8174,7 +7205,7 @@
       <c r="B24" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="239"/>
+      <c r="D24" s="228"/>
       <c r="E24" s="79" t="s">
         <v>36</v>
       </c>
@@ -8196,7 +7227,7 @@
       <c r="B25" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="241">
+      <c r="D25" s="230">
         <f>Assumptions!D34</f>
         <v>0</v>
       </c>
@@ -8217,9 +7248,9 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="D26" s="239">
+        <v>274</v>
+      </c>
+      <c r="D26" s="228">
         <f>Assumptions!D15</f>
         <v>0</v>
       </c>
@@ -8242,7 +7273,7 @@
       <c r="B27" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="239">
+      <c r="D27" s="228">
         <f>Assumptions!D16</f>
         <v>0</v>
       </c>
@@ -8267,7 +7298,7 @@
       <c r="B28" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="239">
+      <c r="D28" s="228">
         <f>Assumptions!D11</f>
         <v>0</v>
       </c>
@@ -8290,7 +7321,7 @@
       <c r="B29" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="239">
+      <c r="D29" s="228">
         <f>Assumptions!D17</f>
         <v>0</v>
       </c>
@@ -8351,7 +7382,7 @@
       <c r="B32" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="241">
+      <c r="D32" s="230">
         <f>Assumptions!D34</f>
         <v>0</v>
       </c>
@@ -8374,7 +7405,7 @@
       <c r="B33" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="241">
+      <c r="D33" s="230">
         <f>Assumptions!D11</f>
         <v>0</v>
       </c>
@@ -8397,7 +7428,7 @@
       <c r="B34" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="241">
+      <c r="D34" s="230">
         <f>Assumptions!D17</f>
         <v>0</v>
       </c>
@@ -8458,7 +7489,7 @@
       <c r="B37" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="241">
+      <c r="D37" s="230">
         <f>DATE(YEAR(D38)-2,MONTH(D38),DAY(D38))</f>
         <v>693232</v>
       </c>
@@ -8481,7 +7512,7 @@
       <c r="B38" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="241">
+      <c r="D38" s="230">
         <f>D25</f>
         <v>0</v>
       </c>
@@ -8504,7 +7535,7 @@
       <c r="B39" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="239" t="str">
+      <c r="D39" s="228" t="str">
         <f>Assumptions!D36</f>
         <v>W</v>
       </c>
@@ -8527,7 +7558,7 @@
       <c r="B40" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="239">
+      <c r="D40" s="228">
         <f>Assumptions!D38</f>
         <v>0</v>
       </c>
@@ -8552,7 +7583,7 @@
       <c r="B41" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="242">
+      <c r="D41" s="231">
         <f>Assumptions!D11</f>
         <v>0</v>
       </c>
@@ -8575,7 +7606,7 @@
       <c r="B42" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="242">
+      <c r="D42" s="231">
         <f>Assumptions!D17</f>
         <v>0</v>
       </c>
@@ -8589,11 +7620,11 @@
       <c r="L42" s="72"/>
       <c r="M42" s="72"/>
       <c r="N42" s="72"/>
-      <c r="O42" s="200" t="s">
-        <v>291</v>
-      </c>
-      <c r="P42" s="273"/>
-      <c r="Q42" s="273"/>
+      <c r="O42" s="189" t="s">
+        <v>282</v>
+      </c>
+      <c r="P42" s="262"/>
+      <c r="Q42" s="262"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B43" s="72"/>
@@ -8634,16 +7665,16 @@
       <c r="R44" s="72"/>
     </row>
     <row r="45" spans="1:18" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B45" s="207" t="s">
+      <c r="B45" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="207" t="s">
+      <c r="C45" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="207" t="s">
+      <c r="D45" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="207"/>
+      <c r="E45" s="196"/>
       <c r="F45" s="94" t="s">
         <v>47</v>
       </c>
@@ -8756,46 +7787,46 @@
       <c r="R47" s="72"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A48" s="204"/>
-      <c r="B48" s="268" t="str" cm="1">
+      <c r="A48" s="193"/>
+      <c r="B48" s="257" t="str" cm="1">
         <f t="array" ref="B48">_xll.ciqfunctions.udf.CIQ($C48,B$46)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="C48" s="269"/>
-      <c r="D48" s="270" t="str" cm="1">
+      <c r="C48" s="258"/>
+      <c r="D48" s="259" t="str" cm="1">
         <f t="array" ref="D48">_xll.ciqfunctions.udf.CIQ($C48,D$46,$D$24,$D$25,$D$26,$D$27,$D$28,$D$29)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="E48" s="270"/>
-      <c r="F48" s="270" t="str" cm="1">
+      <c r="E48" s="259"/>
+      <c r="F48" s="259" t="str" cm="1">
         <f t="array" ref="F48">_xll.ciqfunctions.udf.CIQ($C48,F$46,$D$24,$D$25,$D$26,$D$27,$D$28,$D$29)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="G48" s="270" t="str" cm="1">
+      <c r="G48" s="259" t="str" cm="1">
         <f t="array" ref="G48">_xll.ciqfunctions.udf.CIQ($C48,G$46,$D$24,$D$25,$D$26,$D$27,$D$28,$D$29)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="H48" s="270" t="str" cm="1">
+      <c r="H48" s="259" t="str" cm="1">
         <f t="array" ref="H48">_xll.ciqfunctions.udf.CIQ($C48,H$46,$D$24,$D$25,$D$26,$D$27,$D$28,$D$29)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="I48" s="271">
+      <c r="I48" s="260">
         <f t="shared" ref="I48" si="0">SUM(G48:H48)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="270" t="str" cm="1">
+      <c r="J48" s="259" t="str" cm="1">
         <f t="array" ref="J48">_xll.ciqfunctions.udf.CIQ($C48,J$46,$D$32,$D$33,$D$34)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="K48" s="267" t="str" cm="1">
+      <c r="K48" s="256" t="str" cm="1">
         <f t="array" ref="K48">_xll.ciqfunctions.udf.CIQ($C48,K$46,$D$24,$D$25,$D$26,$D$27,$D$28,$D$29)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="L48" s="267" t="str" cm="1">
+      <c r="L48" s="256" t="str" cm="1">
         <f t="array" ref="L48">_xll.ciqfunctions.udf.CIQAVG($C48,L$46,$D$37,$D$38)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="M48" s="271" t="str" cm="1">
+      <c r="M48" s="260" t="str" cm="1">
         <f t="array" ref="M48">_xll.ciqfunctions.udf.CIQ($C48,M$46,$D$37,$D$38,$D$39,$D$40,$D$41,$D$42)</f>
         <v>(Invalid Identifier)</v>
       </c>
@@ -8807,7 +7838,7 @@
         <f>MAX(I48/SUM(J48),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="272">
+      <c r="P48" s="261">
         <v>0.25</v>
       </c>
       <c r="Q48" s="103" t="e">
@@ -8817,22 +7848,22 @@
       <c r="R48" s="72"/>
     </row>
     <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="204"/>
-      <c r="B49" s="268"/>
-      <c r="C49" s="269"/>
-      <c r="D49" s="270"/>
-      <c r="E49" s="270"/>
-      <c r="F49" s="270"/>
-      <c r="G49" s="270"/>
-      <c r="H49" s="270"/>
-      <c r="I49" s="271"/>
-      <c r="J49" s="270"/>
-      <c r="K49" s="267"/>
-      <c r="L49" s="267"/>
-      <c r="M49" s="271"/>
+      <c r="A49" s="193"/>
+      <c r="B49" s="257"/>
+      <c r="C49" s="258"/>
+      <c r="D49" s="259"/>
+      <c r="E49" s="259"/>
+      <c r="F49" s="259"/>
+      <c r="G49" s="259"/>
+      <c r="H49" s="259"/>
+      <c r="I49" s="260"/>
+      <c r="J49" s="259"/>
+      <c r="K49" s="256"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="260"/>
       <c r="N49" s="101"/>
       <c r="O49" s="102"/>
-      <c r="P49" s="272"/>
+      <c r="P49" s="261"/>
       <c r="Q49" s="103"/>
       <c r="R49" s="72"/>
     </row>
@@ -8932,55 +7963,55 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -8994,23 +8025,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C95108-EDE0-4179-8B50-FB6BC550E7AC}">
-  <sheetPr>
-    <tabColor rgb="FF1440AA"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A1048576" workbookViewId="0">
-      <selection activeCell="F46" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB39DFEB-ADE6-4ED5-9A3D-E259DD219367}">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -9036,20 +8050,20 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="266" t="s">
-        <v>277</v>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" s="252" t="s">
-        <v>279</v>
+      <c r="B3" s="241" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="252" t="s">
-        <v>278</v>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
       </c>
       <c r="I4"/>
     </row>
@@ -9060,15 +8074,15 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
-      <c r="B6" s="253" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
+      <c r="B6" s="242" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -9086,10 +8100,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="72" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="241">
+      <c r="D9" s="230">
         <f>Assumptions!D10</f>
         <v>0</v>
       </c>
@@ -9100,15 +8114,15 @@
         <v>35</v>
       </c>
       <c r="C10" s="50"/>
-      <c r="D10" s="239" t="s">
-        <v>258</v>
+      <c r="D10" s="228" t="s">
+        <v>249</v>
       </c>
       <c r="E10" s="111"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="72"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="231"/>
+      <c r="D11" s="220"/>
       <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -9116,7 +8130,7 @@
         <v>91</v>
       </c>
       <c r="C12" s="50"/>
-      <c r="D12" s="239">
+      <c r="D12" s="228">
         <f>Assumptions!D9</f>
         <v>0</v>
       </c>
@@ -9127,17 +8141,17 @@
         <v>35</v>
       </c>
       <c r="C13" s="50"/>
-      <c r="D13" s="239"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="111" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="72" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C14" s="50"/>
-      <c r="D14" s="239">
+      <c r="D14" s="228">
         <f>Assumptions!D15</f>
         <v>0</v>
       </c>
@@ -9148,7 +8162,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="50"/>
-      <c r="D15" s="239">
+      <c r="D15" s="228">
         <f>Assumptions!D16</f>
         <v>0</v>
       </c>
@@ -9157,7 +8171,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D16" s="243"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="115" t="s">
         <v>89</v>
       </c>
@@ -9167,7 +8181,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="50"/>
-      <c r="D17" s="239">
+      <c r="D17" s="228">
         <f>Assumptions!D11</f>
         <v>0</v>
       </c>
@@ -9178,7 +8192,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="D18" s="239">
+      <c r="D18" s="228">
         <f>Assumptions!D17</f>
         <v>0</v>
       </c>
@@ -9189,26 +8203,26 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="116" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E20" s="114"/>
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="8"/>
-      <c r="B21" s="223"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220" t="s">
+      <c r="B21" s="212"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209" t="s">
         <v>12</v>
       </c>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="226" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="219"/>
-      <c r="D22" s="225" t="e">
+      <c r="B22" s="215" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="208"/>
+      <c r="D22" s="214" t="e">
         <f>D40</f>
         <v>#NUM!</v>
       </c>
@@ -9216,11 +8230,11 @@
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
-      <c r="B23" s="227" t="s">
-        <v>264</v>
+      <c r="B23" s="216" t="s">
+        <v>255</v>
       </c>
       <c r="C23" s="88"/>
-      <c r="D23" s="221" t="str">
+      <c r="D23" s="210" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($D$12, "IQ_EBITDA", $D$10, $D$9, $D$14, $D$15, $D$17, $D$17)</f>
         <v>(Invalid Restatement Type)</v>
       </c>
@@ -9228,11 +8242,11 @@
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
-      <c r="B24" s="228" t="s">
-        <v>265</v>
+      <c r="B24" s="217" t="s">
+        <v>256</v>
       </c>
       <c r="C24" s="43"/>
-      <c r="D24" s="229" t="e">
+      <c r="D24" s="218" t="e">
         <f>D22*D23</f>
         <v>#NUM!</v>
       </c>
@@ -9240,11 +8254,11 @@
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="227" t="s">
+      <c r="B25" s="216" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="88"/>
-      <c r="D25" s="221" t="e" cm="1">
+      <c r="D25" s="210" t="e" cm="1">
         <f t="array" ref="D25">-_xll.ciqfunctions.udf.CIQ($D$12,"IQ_ST_DEBT",$D$13,$D$9,$D$14,$D$15,$D$17,$D$18)-_xll.ciqfunctions.udf.CIQ($D$12,"IQ_LT_DEBT",$D$13,$D$9,$D$14,$D$15,$D$17,$D$18)</f>
         <v>#VALUE!</v>
       </c>
@@ -9252,11 +8266,11 @@
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
-      <c r="B26" s="230" t="s">
+      <c r="B26" s="219" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="89"/>
-      <c r="D26" s="222" t="str" cm="1">
+      <c r="D26" s="211" t="str" cm="1">
         <f t="array" ref="D26">_xll.ciqfunctions.udf.CIQ($D$12,"IQ_CASH_EQUIV",$D$13,$D$9,$D$14,$D$15,$D$17,$D$18)</f>
         <v>(Invalid Restatement Type)</v>
       </c>
@@ -9264,11 +8278,11 @@
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
-      <c r="B27" s="224" t="s">
-        <v>266</v>
+      <c r="B27" s="213" t="s">
+        <v>257</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="232" t="e">
+      <c r="D27" s="221" t="e">
         <f>SUM(D24:D26)</f>
         <v>#NUM!</v>
       </c>
@@ -9286,15 +8300,15 @@
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
-      <c r="B30" s="253" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="254"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="254"/>
+      <c r="B30" s="242" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="243"/>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -9304,31 +8318,31 @@
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E32" s="114"/>
       <c r="F32" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="207" t="s">
+      <c r="C33" s="196" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F33" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G33" s="94" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="94" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -9338,10 +8352,10 @@
       </c>
       <c r="C34" s="125"/>
       <c r="D34" s="126" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F34" s="126" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G34" s="126" t="s">
         <v>94</v>
@@ -9357,98 +8371,98 @@
       <c r="H35" s="83"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="205"/>
-      <c r="B36" s="202" t="str" cm="1">
+      <c r="A36" s="194"/>
+      <c r="B36" s="191" t="str" cm="1">
         <f t="array" ref="B36">_xll.ciqfunctions.udf.CIQ($C36,$B$34)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="C36" s="203"/>
-      <c r="D36" s="208" t="str">
+      <c r="C36" s="192"/>
+      <c r="D36" s="197" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($C36, D$34, $D$10, $D$9)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="F36" s="214" t="str">
+      <c r="F36" s="203" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($C36, F$34, $D$10, $D$9)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="G36" s="214" t="str">
+      <c r="G36" s="203" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($C36, G$34, $D$10, $D$9)</f>
         <v>(Invalid Identifier)</v>
       </c>
-      <c r="H36" s="215" t="str">
+      <c r="H36" s="204" t="str">
         <f>IFERROR(F36/G36,"NM")</f>
         <v>NM</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="205"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="208"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="215"/>
+      <c r="A37" s="194"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="197"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="204"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" s="119" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="119"/>
-      <c r="D38" s="211">
+      <c r="D38" s="200">
         <f>MIN($D$36:D37)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="216">
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="205">
         <f>MIN($H$36:H37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="209" t="s">
+      <c r="B39" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="209"/>
-      <c r="D39" s="212">
+      <c r="C39" s="198"/>
+      <c r="D39" s="201">
         <f>MAX($D$36:D37)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="217">
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="206">
         <f>MAX($H$36:H37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="209"/>
-      <c r="D40" s="212" t="e">
+      <c r="C40" s="198"/>
+      <c r="D40" s="201" t="e">
         <f>MEDIAN($D$36:D37)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="217" t="e">
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="206" t="e">
         <f>MEDIAN($H$36:H37)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="210" t="s">
+      <c r="B41" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="210"/>
-      <c r="D41" s="213" t="e">
+      <c r="C41" s="199"/>
+      <c r="D41" s="202" t="e">
         <f>AVERAGE($D$36:D37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="218" t="e">
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="207" t="e">
         <f>AVERAGE($H$36:H37)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9469,19 +8483,1261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE86279-0287-4AAC-8C68-3C7807795127}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" t="s">
+        <v>294</v>
+      </c>
+      <c r="S1" t="s">
+        <v>295</v>
+      </c>
+      <c r="T1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U1" t="s">
+        <v>297</v>
+      </c>
+      <c r="V1" t="s">
+        <v>298</v>
+      </c>
+      <c r="W1" t="s">
+        <v>299</v>
+      </c>
+      <c r="X1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC871AF4-7FC7-4AA0-BA51-612CB3BC3922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F336EB3-AE15-435C-BFD5-7698A0145ECB}">
   <sheetPr>
-    <tabColor rgb="FF1440AA"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A1048576" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.69140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="29.07421875" customWidth="1"/>
+    <col min="3" max="3" width="9.921875" customWidth="1"/>
+    <col min="4" max="4" width="20.765625" customWidth="1"/>
+    <col min="5" max="7" width="15.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="G1" s="194"/>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="255" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="241" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="241" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="242" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="228">
+        <f>Assumptions!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="164" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119">
+        <f>YEAR($D$30)</f>
+        <v>1900</v>
+      </c>
+      <c r="F11" s="120">
+        <f>$E$11+COLUMN(F11)-COLUMN($E$11)</f>
+        <v>1901</v>
+      </c>
+      <c r="G11" s="120">
+        <f t="shared" ref="G11" si="0">$E$11+COLUMN(G11)-COLUMN($E$11)</f>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="123" t="str">
+        <f>"FY"&amp;E11</f>
+        <v>FY1900</v>
+      </c>
+      <c r="F12" s="123" t="str">
+        <f t="shared" ref="F12" si="1">"FY"&amp;F11</f>
+        <v>FY1901</v>
+      </c>
+      <c r="G12" s="123" t="str">
+        <f t="shared" ref="G12" si="2">"FY"&amp;G11</f>
+        <v>FY1902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="266" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(E40=0),E40,E56),E56)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="266" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(F40=0),F40,F56),F56)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="266" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(G40=0),G40,G56),G56)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="267" t="e">
+        <f>E15-E13</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="267" t="e">
+        <f t="shared" ref="F14:G14" si="3">F15-F13</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="267" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(E42=0),E42,E58),E58)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(F42=0),F42,F58),F58)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(G42=0),G42,G58),G58)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="267" t="e">
+        <f>E17-E15</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="267" t="e">
+        <f t="shared" ref="F16:G16" si="4">F17-F15</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="267" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(E44=0),E44,E60),E60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(F44=0),F44,F60),F60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(G44=0),G44,G60),G60)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(E45=0),E45,E61),E61)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(F45=0),F45,F61),F61)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(G45=0),G45,G61),G61)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(E46=0),E46,E62),E62)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(F46=0),F46,F62),F62)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(G46=0),G46,G62),G62)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(E47=0),E47,E63),E63)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(F47=0),F47,F63),F63)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="267" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(G47=0),G47,G63),G63)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="165" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="268" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(E48=0),E48,E64),E64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="268" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(F48=0),F48,F64),F64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="268" t="e">
+        <f>IF($D$8=$E$8,IF(NOT(G48=0),G48,G64),G64)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="269"/>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="269"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="242" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="270"/>
+      <c r="F24" s="270"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="243"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E25" s="271"/>
+      <c r="F25" s="271"/>
+      <c r="G25" s="271"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="271"/>
+      <c r="G26" s="271"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="228">
+        <f>Assumptions!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="272"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="271"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="271"/>
+      <c r="G28" s="271"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="230">
+        <f>Assumptions!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="112"/>
+      <c r="F29" s="271"/>
+      <c r="G29" s="271"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="230">
+        <f>Assumptions!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="163"/>
+      <c r="F30" s="271"/>
+      <c r="G30" s="271"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="228">
+        <f>Assumptions!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="228">
+        <f>Assumptions!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="271"/>
+      <c r="G32" s="271"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D33" s="232"/>
+      <c r="E33" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="271"/>
+      <c r="G33" s="271"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="228">
+        <f>Assumptions!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="273"/>
+      <c r="F34" s="271"/>
+      <c r="G34" s="271"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="228">
+        <f>Assumptions!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="272"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="271"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E36" s="274"/>
+      <c r="F36" s="271"/>
+      <c r="G36" s="271"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="271"/>
+      <c r="F37" s="271"/>
+      <c r="G37" s="271"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="120">
+        <f>YEAR($D$30)</f>
+        <v>1900</v>
+      </c>
+      <c r="F38" s="120">
+        <f>$E$38+COLUMN(F38)-COLUMN($E$38)</f>
+        <v>1901</v>
+      </c>
+      <c r="G38" s="120">
+        <f t="shared" ref="G38" si="5">$E$38+COLUMN(G38)-COLUMN($E$38)</f>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="121"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="123" t="str">
+        <f>"FY"&amp;E38</f>
+        <v>FY1900</v>
+      </c>
+      <c r="F39" s="123" t="str">
+        <f t="shared" ref="F39" si="6">"FY"&amp;F38</f>
+        <v>FY1901</v>
+      </c>
+      <c r="G39" s="123" t="str">
+        <f t="shared" ref="G39" si="7">"FY"&amp;G38</f>
+        <v>FY1902</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="266" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D40, E$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="F40" s="266" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D40, F$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="G40" s="266" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D40, G$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="130"/>
+      <c r="E41" s="267" t="e">
+        <f>E42-E40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" s="267" t="e">
+        <f t="shared" ref="F41:G41" si="8">F42-F40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" s="267" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="267" t="e">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D42, E$39, $D$29, , $D$32, $D$34, $D$35)*E40/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="267" t="e">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D42, F$39, $D$29, , $D$32, $D$34, $D$35)*F40/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" s="267" t="e">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D42, G$39, $D$29, , $D$32, $D$34, $D$35)*G40/100</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="130"/>
+      <c r="E43" s="267" t="e">
+        <f>E46-E42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" s="267" t="e">
+        <f t="shared" ref="F43:G43" si="9">F46-F42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G43" s="267" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="130" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D44, E$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="F44" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D44, F$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="G44" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D44, G$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="267" t="e">
+        <f>-_xll.ciqfunctions.udf.CIQ($D$27, $D45, E$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" s="267" t="e">
+        <f>-_xll.ciqfunctions.udf.CIQ($D$27, $D45, F$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G45" s="267" t="e">
+        <f>-_xll.ciqfunctions.udf.CIQ($D$27, $D45, G$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D46, E$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="F46" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D46, F$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="G46" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D46, G$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D47, E$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="F47" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D47, F$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+      <c r="G47" s="267" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($D$27, $D47, G$39, $D$29, , $D$32, $D$34, $D$35)</f>
+        <v>(Invalid Filing Mode)</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="165" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="268" t="e">
+        <f>E40/D56*D48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="268" t="e">
+        <f>F40/E40*E48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="268" t="e">
+        <f>G40/F40*F48</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="3"/>
+      <c r="E49" s="271"/>
+      <c r="F49" s="271"/>
+      <c r="G49" s="271"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="3"/>
+      <c r="E50" s="271"/>
+      <c r="F50" s="271"/>
+      <c r="G50" s="271"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="242" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="243"/>
+      <c r="D51" s="243"/>
+      <c r="E51" s="270"/>
+      <c r="F51" s="270"/>
+      <c r="G51" s="270"/>
+      <c r="H51" s="243"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52" s="3"/>
+      <c r="E52" s="271"/>
+      <c r="F52" s="271"/>
+      <c r="G52" s="271"/>
+    </row>
+    <row r="53" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="271"/>
+      <c r="F53" s="271"/>
+      <c r="G53" s="271"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="118"/>
+      <c r="D54" s="177">
+        <f>$E$54+COLUMN(D54)-COLUMN($E$54)</f>
+        <v>1899</v>
+      </c>
+      <c r="E54" s="120">
+        <f>YEAR($D$30)</f>
+        <v>1900</v>
+      </c>
+      <c r="F54" s="120">
+        <f>$E$54+COLUMN(F54)-COLUMN($E$54)</f>
+        <v>1901</v>
+      </c>
+      <c r="G54" s="120">
+        <f t="shared" ref="G54" si="10">$E$54+COLUMN(G54)-COLUMN($E$54)</f>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="121"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="178" t="str">
+        <f>"FY"&amp;D54</f>
+        <v>FY1899</v>
+      </c>
+      <c r="E55" s="123" t="str">
+        <f>"FY"&amp;E54</f>
+        <v>FY1900</v>
+      </c>
+      <c r="F55" s="123" t="str">
+        <f t="shared" ref="F55" si="11">"FY"&amp;F54</f>
+        <v>FY1901</v>
+      </c>
+      <c r="G55" s="123" t="str">
+        <f t="shared" ref="G55" si="12">"FY"&amp;G54</f>
+        <v>FY1902</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="179" t="e">
+        <f>INDEX(IS!21:21,MATCH(D$54,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="278" t="e">
+        <f>D56*(1+E69)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="279" t="e">
+        <f>E56*(1+F69)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" s="279" t="e">
+        <f>F56*(1+G69)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H56" s="232"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="180" t="e">
+        <f>INDEX(IS!22:22,MATCH(D$54,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="280" t="e">
+        <f>-E56*E70</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F57" s="281" t="e">
+        <f>-F56*F70</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" s="281" t="e">
+        <f>-G56*G70</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H57" s="232"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="180" t="e">
+        <f>INDEX(IS!23:23,MATCH(D$54,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="280" t="e">
+        <f t="shared" ref="E58:G58" si="13">E56+E57</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F58" s="281" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G58" s="281" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H58" s="232"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="180" t="e">
+        <f>INDEX(IS!27:27,MATCH(D$54,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="280" t="e">
+        <f>-E56*E71+E72</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F59" s="281" t="e">
+        <f t="shared" ref="F59:G59" si="14">-F56*F71+F72</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G59" s="281" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H59" s="232"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="180" t="e">
+        <f>INDEX(IS!28:28,MATCH(D$54,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="280" t="e">
+        <f t="shared" ref="E60:G60" si="15">E58+E59</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="281" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" s="281" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" s="232"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="180" t="e">
+        <f>INDEX(IS!29:29,MATCH(D$54,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="280" t="e">
+        <f>-E56*E73</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="281" t="e">
+        <f>-F56*F73</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="281" t="e">
+        <f>-G56*G73</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H61" s="232"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="180" t="e">
+        <f>INDEX(IS!30:30,MATCH(D$54,IS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="280" t="e">
+        <f>E60+E61</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F62" s="281" t="e">
+        <f t="shared" ref="F62:G62" si="16">F60+F61</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="281" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H62" s="232"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="180" t="e">
+        <f>INDEX(CFS!25:25,MATCH(D$54,CFS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="280" t="e">
+        <f>-E56*E74</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F63" s="281" t="e">
+        <f>-F56*F74</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="281" t="e">
+        <f>-G56*G74</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H63" s="232"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="181" t="e">
+        <f>INDEX(BS!29:29,MATCH(D$54,BS!$19:$19,0))-INDEX(BS!46:46,MATCH(D$54,BS!$19:$19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="282" t="e">
+        <f>E56*E75</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="283" t="e">
+        <f>F56*F75</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="283" t="e">
+        <f>G56*G75</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H64" s="232"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E65" s="284"/>
+      <c r="F65" s="284"/>
+      <c r="G65" s="284"/>
+      <c r="H65" s="232"/>
+    </row>
+    <row r="66" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" s="284"/>
+      <c r="F66" s="284"/>
+      <c r="G66" s="284"/>
+      <c r="H66" s="232"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B67" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="118"/>
+      <c r="D67" s="177">
+        <f>$E$54+COLUMN(D54)-COLUMN($E$54)</f>
+        <v>1899</v>
+      </c>
+      <c r="E67" s="285">
+        <f>YEAR($D$30)</f>
+        <v>1900</v>
+      </c>
+      <c r="F67" s="285">
+        <f>$E$54+COLUMN(F67)-COLUMN($E$54)</f>
+        <v>1901</v>
+      </c>
+      <c r="G67" s="285">
+        <f t="shared" ref="G67" si="17">$E$54+COLUMN(G67)-COLUMN($E$54)</f>
+        <v>1902</v>
+      </c>
+      <c r="H67" s="232"/>
+    </row>
+    <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="121"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="178" t="str">
+        <f>"FY"&amp;D67</f>
+        <v>FY1899</v>
+      </c>
+      <c r="E68" s="286" t="str">
+        <f>"FY"&amp;E67</f>
+        <v>FY1900</v>
+      </c>
+      <c r="F68" s="286" t="str">
+        <f t="shared" ref="F68:G68" si="18">"FY"&amp;F67</f>
+        <v>FY1901</v>
+      </c>
+      <c r="G68" s="286" t="str">
+        <f t="shared" si="18"/>
+        <v>FY1902</v>
+      </c>
+      <c r="H68" s="232"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B69" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="275" t="e" cm="1">
+        <f t="array" ref="D69">INDEX(IS!21:21,MATCH(D$54,IS!$19:$19,0))/INDEX(IS!21:21,MATCH(D$54,IS!$19:$19,0)-1)-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="287"/>
+      <c r="F69" s="287"/>
+      <c r="G69" s="287"/>
+      <c r="H69" s="232"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B70" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" s="276" t="e">
+        <f>-D57/D56</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="288"/>
+      <c r="F70" s="288"/>
+      <c r="G70" s="288"/>
+      <c r="H70" s="232"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B71" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="276"/>
+      <c r="E71" s="288"/>
+      <c r="F71" s="288"/>
+      <c r="G71" s="288"/>
+      <c r="H71" s="232"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B72" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" s="276"/>
+      <c r="E72" s="288"/>
+      <c r="F72" s="288"/>
+      <c r="G72" s="288"/>
+      <c r="H72" s="232"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B73" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="276" t="e">
+        <f>-D61/D56</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="288"/>
+      <c r="F73" s="288"/>
+      <c r="G73" s="288"/>
+      <c r="H73" s="232"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B74" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="276" t="e">
+        <f>-D63/D56</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="288"/>
+      <c r="F74" s="288"/>
+      <c r="G74" s="288"/>
+      <c r="H74" s="232"/>
+    </row>
+    <row r="75" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="277" t="e">
+        <f>D64/D56</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="289"/>
+      <c r="F75" s="289"/>
+      <c r="G75" s="289"/>
+      <c r="H75" s="232"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E76" s="232"/>
+      <c r="F76" s="232"/>
+      <c r="G76" s="232"/>
+      <c r="H76" s="232"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E77" s="232"/>
+      <c r="F77" s="232"/>
+      <c r="G77" s="232"/>
+      <c r="H77" s="232"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E78" s="232"/>
+      <c r="F78" s="232"/>
+      <c r="G78" s="232"/>
+      <c r="H78" s="232"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E79" s="232"/>
+      <c r="F79" s="232"/>
+      <c r="G79" s="232"/>
+      <c r="H79" s="232"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>